--- a/Element 2 Data.xlsx
+++ b/Element 2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lewis.sms.ed.ac.uk\home\s1921836\Year 5\Thesis and Research Method Notes\Github Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F271ED-E5FE-4E2B-997F-B7A5C5E3B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB869C6-1B7C-4A4C-919F-A974EFD82BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0534D34B-DDA1-4241-A40C-881CDF601600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0534D34B-DDA1-4241-A40C-881CDF601600}"/>
   </bookViews>
   <sheets>
     <sheet name="Element 2 EV uptake Model" sheetId="12" r:id="rId1"/>
@@ -40,6 +40,54 @@
     <author>MCQUAID Thomas</author>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{72347046-C934-4E1D-9AE3-065F10F85FCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MCQUAID Thomas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Method for this explained in section 3.2.2.1. using GOV.UK (2021) and Office for National Statistcs (2023a) to calibrate this. Then data is taken from Ofice for National Statistics Cencuse Map (2023b)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{0191100D-C329-4E55-ABD1-DCDA157AD1B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MCQUAID Thomas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Data from cencus map from Office for National Statistics (2023b)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C0BA20-A7E9-4AC9-BD03-663721B8831B}">
       <text>
         <r>
@@ -60,7 +108,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-From Regional gross disposable household income UK map</t>
+From Regional gross disposable household income UK map Data from cencus map from Office for National Statistics (2021)</t>
         </r>
       </text>
     </comment>
@@ -85,7 +133,7 @@
           </rPr>
           <t xml:space="preserve">
 Person per km^2
-</t>
+From cencus map Data from cencus map from Office for National Statistics (2023b)</t>
         </r>
       </text>
     </comment>
@@ -109,12 +157,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Taken from Ja 2021 from electrical charging point statisits
+Taken from GOV.UK (2023d) Table 2a
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0DECD47C-24C5-455C-9FAF-C1F4E0242FDD}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8A4BE8EC-2893-4630-9A13-D258DD1E0B75}">
       <text>
         <r>
           <rPr>
@@ -134,8 +182,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-From taking charge doccument and housing england and wales cencus 2021. Assume 80% of apartments need public charing and 40% of terraced need public charging for next parts figured out by using data to then find the 73%
-Chart 6 NTS0908 for national travel survey 2020</t>
+UK average taken from England and Wales average as access to Scotland and NI data is lacking </t>
         </r>
       </text>
     </comment>
@@ -160,78 +207,6 @@
           </rPr>
           <t xml:space="preserve">
 From England and Wales which accounts for 90% population so good representative</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{27BB5775-B133-4EA9-B9CB-80EFFFCB6858}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Population from population etimates for the UK,Enlanf Wales mid 2021 National Satistics. Would be 434 if in England but 150 if Wales</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E97880F0-4035-411D-A5D2-9D5E765630C7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Census Map!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{3F888B31-E9DD-4B76-B85D-93CA50FA1B93}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-From Regional gross disposable household income UK map</t>
         </r>
       </text>
     </comment>
@@ -260,81 +235,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{69D391BE-E753-4356-BDC0-3A29DE009C02}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Just Enlgand nts0303
-The rest judgement call from nts 9910</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{19F15B26-CEA0-499D-9C4D-B1BDF7458595}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Taken from Ja 2021 from electrical charging point statisits
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{0237DC15-E968-4439-9A0E-54A2714A0A7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-From taking charge doccument and housing england and wales cencus 2021. Assume 75% of apartments need public charing and 60% of terraced need public charging for next parts
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{7DAC6724-C6C2-4A4E-A58D-A73972A43DF4}">
       <text>
         <r>
@@ -356,30 +256,6 @@
           </rPr>
           <t xml:space="preserve">
 From England and Wales which accounts for 90% population so good representative</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{E97228BA-65AA-4CC5-8E54-EA6B21AF1842}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MCQUAID Thomas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Population from population etimates for the UK,Enlanf Wales mid 2021 National Satistics. Would be 434 if in England but 150 if Wales</t>
         </r>
       </text>
     </comment>
@@ -937,32 +813,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -972,9 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -987,6 +842,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6425,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C47EAE0-FCCF-4E41-BBED-EE1E1F1B5E70}">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,378 +6329,378 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="17">
         <v>73</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>62.5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>21679</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="17">
         <f>275</f>
         <v>275</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
         <v>31.1</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <f>100 - ((0.4*32.1)+(0.8*35.2))</f>
         <v>58.999999999999993</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>54.9</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>21084</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="17">
         <v>4308</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
         <v>22.2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <f>100 - ((0.4*28)+(0.8*34.6))</f>
         <v>61.12</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>41</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>16894</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="17">
         <v>4773</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <f>100-((34.4*0.4)+(12.8*0.8))</f>
         <v>76</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>60.7</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>16297</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="17">
         <v>1416</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
         <v>11.1</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <f>100-((0.4*20.9)+(0.8*21.4))</f>
         <v>74.52</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>66.8</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>25088</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>525</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
         <v>28.5</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <f>100-((25.4*0.4)+(0.8*10))</f>
         <v>81.84</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>66.7</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>17181</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="17">
         <v>323</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <f>100 - ((0.4*17.8)+(0.8*17.2))</f>
         <v>79.12</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <f>35+36.2</f>
         <v>71.2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>28440</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>353</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
         <v>25.6</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <f>100-(0.4*19.9)-(0.8*8.9)</f>
         <v>84.92</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>67.2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>30544</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <v>78</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
         <v>46.7</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <f>100 - ((0.4*27.4)+(0.8*23.6))</f>
         <v>70.16</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>45.6</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>15015</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="17">
         <v>4338</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <f>100 - ((0.4*11.9)+(0.8*11.3))</f>
         <v>86.2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>67.8</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>17873</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="17">
         <v>1274</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
         <v>15.9</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <f>100 - ((0.4*16.6)+(0.8*5.2))</f>
         <v>89.2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <f>41.5+29.7</f>
         <v>71.2</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <v>19254</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="17">
         <v>82</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <f>100 - ((0.4*11)+(0.8*9))</f>
         <v>88.4</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <f>46.2+22.3</f>
         <v>68.5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>18561</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="17">
         <v>81</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
         <v>33.200000000000003</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="17">
         <f>100 - ((0.4*23.3)+(0.8*7.7))</f>
         <v>84.52</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="17">
         <f>33+29.9</f>
         <v>62.9</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>17448</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="17">
         <v>743</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>8.5</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <f>100 - ((0.4*14.2)+(0.8*17.5))</f>
         <v>80.319999999999993</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <f>38.2+34.8</f>
         <v>73</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>32525</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="17">
         <v>372</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
         <v>19</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <f>100 - ((0.4*22.1)+(0.8*7))</f>
         <v>85.56</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <f>44.6+23.8</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>17778</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="17">
         <v>97</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
         <v>65.7</v>
       </c>
       <c r="Q18" s="7"/>
@@ -6837,640 +6713,640 @@
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="J20" s="20" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="J20" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="14">
         <v>20.2</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="14">
         <v>20.21</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="14">
         <v>20.22</v>
       </c>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="21">
         <v>73</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="21">
         <v>62.5</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="21">
         <v>21679</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="21">
         <f>67000000/243610</f>
         <v>275.02976068305901</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="21">
         <v>31.1</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>10.18</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>16.630000000000003</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>20.82</v>
       </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="28">
-        <f>SQRT(C5/73)</f>
+      <c r="C23" s="22">
+        <f t="shared" ref="C23:C36" si="0">SQRT(C5/73)</f>
         <v>0.89901011011122212</v>
       </c>
-      <c r="D23" s="28">
-        <f>SQRT(D5/62.5)</f>
+      <c r="D23" s="22">
+        <f t="shared" ref="D23:D36" si="1">SQRT(D5/62.5)</f>
         <v>0.93722996110879853</v>
       </c>
-      <c r="E23" s="28">
-        <f>SQRT(E5/$E$4)</f>
+      <c r="E23" s="22">
+        <f t="shared" ref="E23:E36" si="2">SQRT(E5/$E$4)</f>
         <v>0.98618156776427235</v>
       </c>
-      <c r="F23" s="28">
-        <f>F5/275</f>
+      <c r="F23" s="22">
+        <f t="shared" ref="F23:F36" si="3">F5/275</f>
         <v>15.665454545454546</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="22">
         <v>1</v>
       </c>
-      <c r="H23" s="28">
-        <f>SQRT(H5/31.1)</f>
+      <c r="H23" s="22">
+        <f t="shared" ref="H23:H36" si="4">SQRT(H5/31.1)</f>
         <v>0.84488245724448885</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="16">
         <v>8.11</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="16">
         <v>11.47</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="16">
         <v>14</v>
       </c>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="27">
-        <f>SQRT(C6/73)</f>
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
         <v>0.91501927519184134</v>
       </c>
-      <c r="D24" s="27">
-        <f>SQRT(D6/62.5)</f>
+      <c r="D24" s="21">
+        <f t="shared" si="1"/>
         <v>0.80993826925266355</v>
       </c>
-      <c r="E24" s="27">
-        <f>SQRT(E6/$E$4)</f>
+      <c r="E24" s="21">
+        <f t="shared" si="2"/>
         <v>0.88276808226238634</v>
       </c>
-      <c r="F24" s="27">
-        <f>F6/275</f>
+      <c r="F24" s="21">
+        <f t="shared" si="3"/>
         <v>17.356363636363636</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="21">
         <v>1</v>
       </c>
-      <c r="H24" s="27">
-        <f>SQRT(H6/31.1)</f>
+      <c r="H24" s="21">
+        <f t="shared" si="4"/>
         <v>0.78162169614478105</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>4.57</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>7.74</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>10.09</v>
       </c>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="27">
-        <f>SQRT(C7/73)</f>
+      <c r="C25" s="21">
+        <f t="shared" si="0"/>
         <v>1.0203410657280039</v>
       </c>
-      <c r="D25" s="27">
-        <f>SQRT(D7/62.5)</f>
+      <c r="D25" s="21">
+        <f t="shared" si="1"/>
         <v>0.98549479958039354</v>
       </c>
-      <c r="E25" s="27">
-        <f>SQRT(E7/$E$4)</f>
+      <c r="E25" s="21">
+        <f t="shared" si="2"/>
         <v>0.86703017045624631</v>
       </c>
-      <c r="F25" s="27">
-        <f>F7/275</f>
+      <c r="F25" s="21">
+        <f t="shared" si="3"/>
         <v>5.1490909090909094</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="21">
         <v>0.5</v>
       </c>
-      <c r="H25" s="27">
-        <f>SQRT(H7/31.1)</f>
+      <c r="H25" s="21">
+        <f t="shared" si="4"/>
         <v>0.59742211482313134</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>4.5500000000000007</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>7.7799999999999994</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <v>9.6</v>
       </c>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="27">
-        <f>SQRT(C8/73)</f>
+      <c r="C26" s="21">
+        <f t="shared" si="0"/>
         <v>1.0103573218461968</v>
       </c>
-      <c r="D26" s="27">
-        <f>SQRT(D8/62.5)</f>
+      <c r="D26" s="21">
+        <f t="shared" si="1"/>
         <v>1.0338278386656068</v>
       </c>
-      <c r="E26" s="27">
-        <f>SQRT(E8/$E$4)</f>
+      <c r="E26" s="21">
+        <f t="shared" si="2"/>
         <v>1.0757550606887016</v>
       </c>
-      <c r="F26" s="27">
-        <f>F8/275</f>
+      <c r="F26" s="21">
+        <f t="shared" si="3"/>
         <v>1.9090909090909092</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="21">
         <v>0.5</v>
       </c>
-      <c r="H26" s="27">
-        <f>SQRT(H8/31.1)</f>
+      <c r="H26" s="21">
+        <f t="shared" si="4"/>
         <v>0.95728716372171552</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>6.25</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>10.51</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>12.59</v>
       </c>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="27">
-        <f>SQRT(C9/73)</f>
+      <c r="C27" s="21">
+        <f t="shared" si="0"/>
         <v>1.0588181573863187</v>
       </c>
-      <c r="D27" s="27">
-        <f>SQRT(D9/62.5)</f>
+      <c r="D27" s="21">
+        <f t="shared" si="1"/>
         <v>1.0330537256115968</v>
       </c>
-      <c r="E27" s="27">
-        <f>SQRT(E9/$E$4)</f>
+      <c r="E27" s="21">
+        <f t="shared" si="2"/>
         <v>0.89023485950542713</v>
       </c>
-      <c r="F27" s="27">
-        <f>F9/275</f>
+      <c r="F27" s="21">
+        <f t="shared" si="3"/>
         <v>1.1745454545454546</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="21">
         <v>-1.5</v>
       </c>
-      <c r="H27" s="27">
-        <f>SQRT(H9/31.1)</f>
+      <c r="H27" s="21">
+        <f t="shared" si="4"/>
         <v>0.4744263755864444</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>2.4900000000000002</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>5.8097199999999996</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>7.1316000000000006</v>
       </c>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="27">
-        <f>SQRT(C10/73)</f>
+      <c r="C28" s="21">
+        <f t="shared" si="0"/>
         <v>1.0410742607702661</v>
       </c>
-      <c r="D28" s="27">
-        <f>SQRT(D10/62.5)</f>
+      <c r="D28" s="21">
+        <f t="shared" si="1"/>
         <v>1.0673331251301066</v>
       </c>
-      <c r="E28" s="27">
-        <f>SQRT(E10/$E$4)</f>
+      <c r="E28" s="21">
+        <f t="shared" si="2"/>
         <v>1.1453683375346038</v>
       </c>
-      <c r="F28" s="27">
-        <f>F10/275</f>
+      <c r="F28" s="21">
+        <f t="shared" si="3"/>
         <v>1.2836363636363637</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="21">
         <v>-1.5</v>
       </c>
-      <c r="H28" s="27">
-        <f>SQRT(H10/31.1)</f>
+      <c r="H28" s="21">
+        <f t="shared" si="4"/>
         <v>0.90727676339798835</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>10.53</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>17.14</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>21.36</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="27">
-        <f>SQRT(C11/73)</f>
+      <c r="C29" s="21">
+        <f t="shared" si="0"/>
         <v>1.0785581445767662</v>
       </c>
-      <c r="D29" s="27">
-        <f>SQRT(D11/62.5)</f>
+      <c r="D29" s="21">
+        <f t="shared" si="1"/>
         <v>1.0369185117452577</v>
       </c>
-      <c r="E29" s="27">
-        <f>SQRT(E11/$E$4)</f>
+      <c r="E29" s="21">
+        <f t="shared" si="2"/>
         <v>1.1869798126739028</v>
       </c>
-      <c r="F29" s="27">
-        <f>F11/275</f>
+      <c r="F29" s="21">
+        <f t="shared" si="3"/>
         <v>0.28363636363636363</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="21">
         <v>-2</v>
       </c>
-      <c r="H29" s="27">
-        <f>SQRT(H11/31.1)</f>
+      <c r="H29" s="21">
+        <f t="shared" si="4"/>
         <v>1.2254010433494011</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>8.9489999999999998</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>16.587</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>19.762560000000001</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="27">
-        <f>SQRT(C12/73)</f>
+      <c r="C30" s="21">
+        <f t="shared" si="0"/>
         <v>0.98035498183615044</v>
       </c>
-      <c r="D30" s="27">
-        <f>SQRT(D12/62.5)</f>
+      <c r="D30" s="21">
+        <f t="shared" si="1"/>
         <v>0.85416626016250496</v>
       </c>
-      <c r="E30" s="27">
-        <f>SQRT(E12/$E$4)</f>
+      <c r="E30" s="21">
+        <f t="shared" si="2"/>
         <v>0.83222938394265933</v>
       </c>
-      <c r="F30" s="27">
-        <f>F12/275</f>
+      <c r="F30" s="21">
+        <f t="shared" si="3"/>
         <v>15.774545454545455</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="21">
         <v>1</v>
       </c>
-      <c r="H30" s="27">
-        <f>SQRT(H12/31.1)</f>
+      <c r="H30" s="21">
+        <f t="shared" si="4"/>
         <v>1.1758557122149609</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>7.47</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>11.5023</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>13.68</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="27">
-        <f>SQRT(C13/73)</f>
+      <c r="C31" s="21">
+        <f t="shared" si="0"/>
         <v>1.0866563016005655</v>
       </c>
-      <c r="D31" s="27">
-        <f>SQRT(D13/62.5)</f>
+      <c r="D31" s="21">
+        <f t="shared" si="1"/>
         <v>1.0415373253033229</v>
       </c>
-      <c r="E31" s="27">
-        <f>SQRT(E13/$E$4)</f>
+      <c r="E31" s="21">
+        <f t="shared" si="2"/>
         <v>0.90798590110475252</v>
       </c>
-      <c r="F31" s="27">
-        <f>F13/275</f>
+      <c r="F31" s="21">
+        <f t="shared" si="3"/>
         <v>4.6327272727272728</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="21">
         <v>0.5</v>
       </c>
-      <c r="H31" s="27">
-        <f>SQRT(H13/31.1)</f>
+      <c r="H31" s="21">
+        <f t="shared" si="4"/>
         <v>0.71502029292363756</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>8.9789999999999992</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>9.8800000000000008</v>
       </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="27">
-        <f>SQRT(C14/73)</f>
+      <c r="C32" s="21">
+        <f t="shared" si="0"/>
         <v>1.1054039117983878</v>
       </c>
-      <c r="D32" s="27">
-        <f>SQRT(D14/62.5)</f>
+      <c r="D32" s="21">
+        <f t="shared" si="1"/>
         <v>1.0673331251301066</v>
       </c>
-      <c r="E32" s="27">
-        <f>SQRT(E14/$E$4)</f>
+      <c r="E32" s="21">
+        <f t="shared" si="2"/>
         <v>0.94241211626920451</v>
       </c>
-      <c r="F32" s="27">
-        <f>F14/275</f>
+      <c r="F32" s="21">
+        <f t="shared" si="3"/>
         <v>0.29818181818181816</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="21">
         <v>-2</v>
       </c>
-      <c r="H32" s="27">
-        <f>SQRT(H14/31.1)</f>
+      <c r="H32" s="21">
+        <f t="shared" si="4"/>
         <v>0.64653416836866962</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>6.8659129999999999</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>11.50874</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>14.059749999999999</v>
       </c>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="27">
-        <f>SQRT(C15/73)</f>
+      <c r="C33" s="21">
+        <f t="shared" si="0"/>
         <v>1.1004357791845871</v>
       </c>
-      <c r="D33" s="27">
-        <f>SQRT(D15/62.5)</f>
+      <c r="D33" s="21">
+        <f t="shared" si="1"/>
         <v>1.046900186264192</v>
       </c>
-      <c r="E33" s="27">
-        <f>SQRT(E15/$E$4)</f>
+      <c r="E33" s="21">
+        <f t="shared" si="2"/>
         <v>0.92529680523371938</v>
       </c>
-      <c r="F33" s="27">
-        <f>F15/275</f>
+      <c r="F33" s="21">
+        <f t="shared" si="3"/>
         <v>0.29454545454545455</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="21">
         <v>-2</v>
       </c>
-      <c r="H33" s="27">
-        <f>SQRT(H15/31.1)</f>
+      <c r="H33" s="21">
+        <f t="shared" si="4"/>
         <v>1.0332105863547987</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>5.86</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>8.5500000000000007</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>12.13</v>
       </c>
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="27">
-        <f>SQRT(C16/73)</f>
+      <c r="C34" s="21">
+        <f t="shared" si="0"/>
         <v>1.0760149716328682</v>
       </c>
-      <c r="D34" s="27">
-        <f>SQRT(D16/62.5)</f>
+      <c r="D34" s="21">
+        <f t="shared" si="1"/>
         <v>1.0031948963187562</v>
       </c>
-      <c r="E34" s="27">
-        <f>SQRT(E16/$E$4)</f>
+      <c r="E34" s="21">
+        <f t="shared" si="2"/>
         <v>0.89712550477503716</v>
       </c>
-      <c r="F34" s="27">
-        <f>F16/275</f>
+      <c r="F34" s="21">
+        <f t="shared" si="3"/>
         <v>2.7018181818181817</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="21">
         <v>0.5</v>
       </c>
-      <c r="H34" s="27">
-        <f>SQRT(H16/31.1)</f>
+      <c r="H34" s="21">
+        <f t="shared" si="4"/>
         <v>0.52279240345103462</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>5.3963200000000002</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>9.2318999999999996</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>10.555300000000001</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="27">
-        <f>SQRT(C17/73)</f>
+      <c r="C35" s="21">
+        <f t="shared" si="0"/>
         <v>1.04893945135205</v>
       </c>
-      <c r="D35" s="27">
-        <f>SQRT(D17/62.5)</f>
+      <c r="D35" s="21">
+        <f t="shared" si="1"/>
         <v>1.0807404868885035</v>
       </c>
-      <c r="E35" s="27">
-        <f>SQRT(E17/$E$4)</f>
+      <c r="E35" s="21">
+        <f t="shared" si="2"/>
         <v>1.2248672700859964</v>
       </c>
-      <c r="F35" s="27">
-        <f>F17/275</f>
+      <c r="F35" s="21">
+        <f t="shared" si="3"/>
         <v>1.3527272727272728</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="21">
         <v>-1.5</v>
       </c>
-      <c r="H35" s="27">
-        <f>SQRT(H17/31.1)</f>
+      <c r="H35" s="21">
+        <f t="shared" si="4"/>
         <v>0.78162169614478105</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>13.25</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>19.219200000000001</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>21.947199999999999</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="27">
-        <f>SQRT(C18/73)</f>
+      <c r="C36" s="21">
+        <f t="shared" si="0"/>
         <v>1.082614795077431</v>
       </c>
-      <c r="D36" s="27">
-        <f>SQRT(D18/62.5)</f>
+      <c r="D36" s="21">
+        <f t="shared" si="1"/>
         <v>1.0461357464497616</v>
       </c>
-      <c r="E36" s="27">
-        <f>SQRT(E18/$E$4)</f>
+      <c r="E36" s="21">
+        <f t="shared" si="2"/>
         <v>0.90556958631486251</v>
       </c>
-      <c r="F36" s="27">
-        <f>F18/275</f>
+      <c r="F36" s="21">
+        <f t="shared" si="3"/>
         <v>0.35272727272727272</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="21">
         <v>-2</v>
       </c>
-      <c r="H36" s="27">
-        <f>SQRT(H18/31.1)</f>
+      <c r="H36" s="21">
+        <f t="shared" si="4"/>
         <v>1.4534580120959961</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>3.6629999999999998</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>10.545199999999999</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>11.5867</v>
       </c>
-      <c r="P36" s="29"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="12" t="s">
+      <c r="I39" s="25"/>
+      <c r="J39" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="13"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -7479,10 +7355,10 @@
       <c r="V39" s="4"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <f>(0.65*1)+(0.65*1)+(0.37*1)</f>
         <v>1.67</v>
       </c>
@@ -7492,25 +7368,25 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="O40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q40" s="4"/>
@@ -7521,11 +7397,11 @@
       <c r="V40" s="4"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="10">
-        <f t="shared" ref="C41:C51" si="0">(0.72*C23)+(0.72*D23)+(0.19*H23)</f>
+      <c r="C41" s="9">
+        <f t="shared" ref="C41:C51" si="5">(0.72*C23)+(0.72*D23)+(0.19*H23)</f>
         <v>1.4826205181548677</v>
       </c>
       <c r="D41" s="4"/>
@@ -7533,34 +7409,34 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="10">
-        <f>K23-J23</f>
+      <c r="J41" s="9">
+        <f t="shared" ref="J41:K54" si="6">K23-J23</f>
         <v>3.3600000000000012</v>
       </c>
-      <c r="K41" s="10">
-        <f>L23-K23</f>
+      <c r="K41" s="9">
+        <f t="shared" si="6"/>
         <v>2.5299999999999994</v>
       </c>
-      <c r="L41" s="10">
-        <f>(2*K41)+J23</f>
+      <c r="L41" s="9">
+        <f t="shared" ref="L41:L50" si="7">(2*K41)+J23</f>
         <v>13.169999999999998</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="9">
         <f>D60</f>
         <v>14.196016681242689</v>
       </c>
-      <c r="N41" s="10">
-        <f>J23+(J41*2)</f>
+      <c r="N41" s="9">
+        <f t="shared" ref="N41:N50" si="8">J23+(J41*2)</f>
         <v>14.830000000000002</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="9">
         <f>M41-L41</f>
         <v>1.026016681242691</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="9">
         <f>N41-M41</f>
         <v>0.63398331875731273</v>
       </c>
@@ -7572,11 +7448,11 @@
       <c r="V41" s="4"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="10">
-        <f t="shared" si="0"/>
+      <c r="C42" s="9">
+        <f t="shared" si="5"/>
         <v>1.3904775542675518</v>
       </c>
       <c r="D42" s="4"/>
@@ -7584,35 +7460,35 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J42" s="10">
-        <f>K24-J24</f>
+      <c r="J42" s="9">
+        <f t="shared" si="6"/>
         <v>3.17</v>
       </c>
-      <c r="K42" s="10">
-        <f>L24-K24</f>
+      <c r="K42" s="9">
+        <f t="shared" si="6"/>
         <v>2.3499999999999996</v>
       </c>
-      <c r="L42" s="10">
-        <f>(2*K42)+J24</f>
+      <c r="L42" s="9">
+        <f t="shared" si="7"/>
         <v>9.27</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="9">
         <f>E60</f>
         <v>9.7880001280471234</v>
       </c>
-      <c r="N42" s="10">
-        <f>J24+(J42*2)</f>
+      <c r="N42" s="9">
+        <f t="shared" si="8"/>
         <v>10.91</v>
       </c>
-      <c r="O42" s="10">
-        <f t="shared" ref="O42:P54" si="1">M42-L42</f>
+      <c r="O42" s="9">
+        <f t="shared" ref="O42:P54" si="9">M42-L42</f>
         <v>0.51800012804712381</v>
       </c>
-      <c r="P42" s="10">
-        <f t="shared" si="1"/>
+      <c r="P42" s="9">
+        <f t="shared" si="9"/>
         <v>1.1219998719528768</v>
       </c>
       <c r="Q42" s="4"/>
@@ -7623,11 +7499,11 @@
       <c r="V42" s="4"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="10">
-        <f t="shared" si="0"/>
+      <c r="C43" s="9">
+        <f t="shared" si="5"/>
         <v>1.5577120248384411</v>
       </c>
       <c r="D43" s="4"/>
@@ -7635,35 +7511,35 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="10">
-        <f>K25-J25</f>
+      <c r="J43" s="9">
+        <f t="shared" si="6"/>
         <v>3.2299999999999986</v>
       </c>
-      <c r="K43" s="10">
-        <f>L25-K25</f>
+      <c r="K43" s="9">
+        <f t="shared" si="6"/>
         <v>1.8200000000000003</v>
       </c>
-      <c r="L43" s="10">
-        <f>(2*K43)+J25</f>
+      <c r="L43" s="9">
+        <f t="shared" si="7"/>
         <v>8.1900000000000013</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="9">
         <f>F60</f>
         <v>9.5259363811388127</v>
       </c>
-      <c r="N43" s="10">
-        <f>J25+(J43*2)</f>
+      <c r="N43" s="9">
+        <f t="shared" si="8"/>
         <v>11.009999999999998</v>
       </c>
-      <c r="O43" s="10">
-        <f t="shared" si="1"/>
+      <c r="O43" s="9">
+        <f t="shared" si="9"/>
         <v>1.3359363811388114</v>
       </c>
-      <c r="P43" s="10">
-        <f t="shared" si="1"/>
+      <c r="P43" s="9">
+        <f t="shared" si="9"/>
         <v>1.4840636188611853</v>
       </c>
       <c r="Q43" s="4"/>
@@ -7674,11 +7550,11 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="10">
-        <f t="shared" si="0"/>
+      <c r="C44" s="9">
+        <f t="shared" si="5"/>
         <v>1.6536978766756245</v>
       </c>
       <c r="D44" s="4"/>
@@ -7686,35 +7562,35 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="10">
-        <f>K26-J26</f>
+      <c r="J44" s="9">
+        <f t="shared" si="6"/>
         <v>4.26</v>
       </c>
-      <c r="K44" s="10">
-        <f>L26-K26</f>
+      <c r="K44" s="9">
+        <f t="shared" si="6"/>
         <v>2.08</v>
       </c>
-      <c r="L44" s="10">
-        <f>(2*K44)+J26</f>
+      <c r="L44" s="9">
+        <f t="shared" si="7"/>
         <v>10.41</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M44" s="9">
         <f>G60</f>
         <v>12.847346999885467</v>
       </c>
-      <c r="N44" s="10">
-        <f>J26+(J44*2)</f>
+      <c r="N44" s="9">
+        <f t="shared" si="8"/>
         <v>14.77</v>
       </c>
-      <c r="O44" s="10">
-        <f t="shared" si="1"/>
+      <c r="O44" s="9">
+        <f t="shared" si="9"/>
         <v>2.4373469998854667</v>
       </c>
-      <c r="P44" s="10">
-        <f t="shared" si="1"/>
+      <c r="P44" s="9">
+        <f t="shared" si="9"/>
         <v>1.9226530001145328</v>
       </c>
       <c r="Q44" s="4"/>
@@ -7725,11 +7601,11 @@
       <c r="V44" s="4"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="10">
-        <f t="shared" si="0"/>
+      <c r="C45" s="9">
+        <f t="shared" si="5"/>
         <v>1.5962887671199235</v>
       </c>
       <c r="D45" s="4"/>
@@ -7737,35 +7613,35 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="10">
-        <f>K27-J27</f>
+      <c r="J45" s="9">
+        <f t="shared" si="6"/>
         <v>3.3197199999999993</v>
       </c>
-      <c r="K45" s="10">
-        <f>L27-K27</f>
+      <c r="K45" s="9">
+        <f t="shared" si="6"/>
         <v>1.3218800000000011</v>
       </c>
-      <c r="L45" s="10">
-        <f>(2*K45)+J27</f>
+      <c r="L45" s="9">
+        <f t="shared" si="7"/>
         <v>5.1337600000000023</v>
       </c>
-      <c r="M45" s="10">
+      <c r="M45" s="9">
         <f>H60</f>
         <v>7.6980379034000173</v>
       </c>
-      <c r="N45" s="10">
-        <f>J27+(J45*2)</f>
+      <c r="N45" s="9">
+        <f t="shared" si="8"/>
         <v>9.1294399999999989</v>
       </c>
-      <c r="O45" s="10">
-        <f t="shared" si="1"/>
+      <c r="O45" s="9">
+        <f t="shared" si="9"/>
         <v>2.5642779034000149</v>
       </c>
-      <c r="P45" s="10">
-        <f t="shared" si="1"/>
+      <c r="P45" s="9">
+        <f t="shared" si="9"/>
         <v>1.4314020965999816</v>
       </c>
       <c r="Q45" s="4"/>
@@ -7776,11 +7652,11 @@
       <c r="V45" s="4"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="10">
-        <f t="shared" si="0"/>
+      <c r="C46" s="9">
+        <f t="shared" si="5"/>
         <v>1.690435902893886</v>
       </c>
       <c r="D46" s="4"/>
@@ -7788,35 +7664,35 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="10">
-        <f>K28-J28</f>
+      <c r="J46" s="9">
+        <f t="shared" si="6"/>
         <v>6.6100000000000012</v>
       </c>
-      <c r="K46" s="10">
-        <f>L28-K28</f>
+      <c r="K46" s="9">
+        <f t="shared" si="6"/>
         <v>4.2199999999999989</v>
       </c>
-      <c r="L46" s="10">
-        <f>(2*K46)+J28</f>
+      <c r="L46" s="9">
+        <f t="shared" si="7"/>
         <v>18.97</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="9">
         <f>I60</f>
         <v>19.931858742330256</v>
       </c>
-      <c r="N46" s="10">
-        <f>J28+(J46*2)</f>
+      <c r="N46" s="9">
+        <f t="shared" si="8"/>
         <v>23.75</v>
       </c>
-      <c r="O46" s="10">
-        <f t="shared" si="1"/>
+      <c r="O46" s="9">
+        <f t="shared" si="9"/>
         <v>0.96185874233025714</v>
       </c>
-      <c r="P46" s="10">
-        <f t="shared" si="1"/>
+      <c r="P46" s="9">
+        <f t="shared" si="9"/>
         <v>3.818141257669744</v>
       </c>
       <c r="Q46" s="4"/>
@@ -7827,11 +7703,11 @@
       <c r="V46" s="4"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="10">
-        <f t="shared" si="0"/>
+      <c r="C47" s="9">
+        <f t="shared" si="5"/>
         <v>1.7559693907882434</v>
       </c>
       <c r="D47" s="4"/>
@@ -7839,35 +7715,35 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="10">
-        <f>K29-J29</f>
+      <c r="J47" s="9">
+        <f t="shared" si="6"/>
         <v>7.6379999999999999</v>
       </c>
-      <c r="K47" s="10">
-        <f>L29-K29</f>
+      <c r="K47" s="9">
+        <f t="shared" si="6"/>
         <v>3.1755600000000008</v>
       </c>
-      <c r="L47" s="10">
-        <f>(2*K47)+J29</f>
+      <c r="L47" s="9">
+        <f t="shared" si="7"/>
         <v>15.300120000000001</v>
       </c>
-      <c r="M47" s="10">
+      <c r="M47" s="9">
         <f>J60</f>
         <v>19.297313663916906</v>
       </c>
-      <c r="N47" s="10">
-        <f>J29+(J47*2)</f>
+      <c r="N47" s="9">
+        <f t="shared" si="8"/>
         <v>24.225000000000001</v>
       </c>
-      <c r="O47" s="10">
-        <f t="shared" si="1"/>
+      <c r="O47" s="9">
+        <f t="shared" si="9"/>
         <v>3.9971936639169048</v>
       </c>
-      <c r="P47" s="10">
-        <f t="shared" si="1"/>
+      <c r="P47" s="9">
+        <f t="shared" si="9"/>
         <v>4.9276863360830951</v>
       </c>
       <c r="Q47" s="4"/>
@@ -7878,11 +7754,11 @@
       <c r="V47" s="4"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="10">
-        <f t="shared" si="0"/>
+      <c r="C48" s="9">
+        <f t="shared" si="5"/>
         <v>1.5442678795598745</v>
       </c>
       <c r="D48" s="4"/>
@@ -7890,35 +7766,35 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="10">
-        <f>K30-J30</f>
+      <c r="J48" s="9">
+        <f t="shared" si="6"/>
         <v>4.0323000000000002</v>
       </c>
-      <c r="K48" s="10">
-        <f>L30-K30</f>
+      <c r="K48" s="9">
+        <f t="shared" si="6"/>
         <v>2.1776999999999997</v>
       </c>
-      <c r="L48" s="10">
-        <f>(2*K48)+J30</f>
+      <c r="L48" s="9">
+        <f t="shared" si="7"/>
         <v>11.825399999999998</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="9">
         <f>L60</f>
         <v>13.218319799533486</v>
       </c>
-      <c r="N48" s="10">
-        <f>J30+(J48*2)</f>
+      <c r="N48" s="9">
+        <f t="shared" si="8"/>
         <v>15.534600000000001</v>
       </c>
-      <c r="O48" s="10">
-        <f t="shared" si="1"/>
+      <c r="O48" s="9">
+        <f t="shared" si="9"/>
         <v>1.3929197995334874</v>
       </c>
-      <c r="P48" s="10">
-        <f t="shared" si="1"/>
+      <c r="P48" s="9">
+        <f t="shared" si="9"/>
         <v>2.3162802004665153</v>
       </c>
       <c r="Q48" s="4"/>
@@ -7929,11 +7805,11 @@
       <c r="V48" s="4"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="10">
-        <f t="shared" si="0"/>
+      <c r="C49" s="9">
+        <f t="shared" si="5"/>
         <v>1.6681532670262906</v>
       </c>
       <c r="D49" s="4"/>
@@ -7941,35 +7817,35 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="10">
-        <f>K31-J31</f>
+      <c r="J49" s="9">
+        <f t="shared" si="6"/>
         <v>4.8289999999999988</v>
       </c>
-      <c r="K49" s="10">
-        <f>L31-K31</f>
+      <c r="K49" s="9">
+        <f t="shared" si="6"/>
         <v>0.90100000000000158</v>
       </c>
-      <c r="L49" s="10">
-        <f>(2*K49)+J31</f>
+      <c r="L49" s="9">
+        <f t="shared" si="7"/>
         <v>5.9520000000000035</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49" s="9">
         <f>M60</f>
         <v>9.9637022773772124</v>
       </c>
-      <c r="N49" s="10">
-        <f>J31+(J49*2)</f>
+      <c r="N49" s="9">
+        <f t="shared" si="8"/>
         <v>13.807999999999998</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" si="1"/>
+      <c r="O49" s="9">
+        <f t="shared" si="9"/>
         <v>4.0117022773772089</v>
       </c>
-      <c r="P49" s="10">
-        <f t="shared" si="1"/>
+      <c r="P49" s="9">
+        <f t="shared" si="9"/>
         <v>3.8442977226227857</v>
       </c>
       <c r="Q49" s="4"/>
@@ -7980,11 +7856,11 @@
       <c r="V49" s="4"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="10">
-        <f t="shared" si="0"/>
+      <c r="C50" s="9">
+        <f t="shared" si="5"/>
         <v>1.6872121585785629</v>
       </c>
       <c r="D50" s="4"/>
@@ -7992,35 +7868,35 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="10">
-        <f>K32-J32</f>
+      <c r="J50" s="9">
+        <f t="shared" si="6"/>
         <v>4.6428269999999996</v>
       </c>
-      <c r="K50" s="10">
-        <f>L32-K32</f>
+      <c r="K50" s="9">
+        <f t="shared" si="6"/>
         <v>2.5510099999999998</v>
       </c>
-      <c r="L50" s="10">
-        <f>(2*K50)+J32</f>
+      <c r="L50" s="9">
+        <f t="shared" si="7"/>
         <v>11.967932999999999</v>
       </c>
-      <c r="M50" s="10">
+      <c r="M50" s="9">
         <f>N60</f>
         <v>13.018815084000579</v>
       </c>
-      <c r="N50" s="10">
-        <f>J32+(J50*2)</f>
+      <c r="N50" s="9">
+        <f t="shared" si="8"/>
         <v>16.151567</v>
       </c>
-      <c r="O50" s="10">
-        <f t="shared" si="1"/>
+      <c r="O50" s="9">
+        <f t="shared" si="9"/>
         <v>1.0508820840005804</v>
       </c>
-      <c r="P50" s="10">
-        <f t="shared" si="1"/>
+      <c r="P50" s="9">
+        <f t="shared" si="9"/>
         <v>3.132751915999421</v>
       </c>
       <c r="Q50" s="4"/>
@@ -8031,11 +7907,11 @@
       <c r="V50" s="4"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="10">
-        <f t="shared" si="0"/>
+      <c r="C51" s="9">
+        <f t="shared" si="5"/>
         <v>1.7423919065305327</v>
       </c>
       <c r="D51" s="4"/>
@@ -8043,35 +7919,35 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="10">
-        <f>K33-J33</f>
+      <c r="J51" s="9">
+        <f t="shared" si="6"/>
         <v>2.6900000000000004</v>
       </c>
-      <c r="K51" s="10">
-        <f>L33-K33</f>
+      <c r="K51" s="9">
+        <f t="shared" si="6"/>
         <v>3.58</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="9">
         <f>(2*J51)+J33</f>
         <v>11.240000000000002</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M51" s="9">
         <f>O60</f>
         <v>12.793497763452226</v>
       </c>
-      <c r="N51" s="10">
+      <c r="N51" s="9">
         <f>J33+(K51*2)</f>
         <v>13.02</v>
       </c>
-      <c r="O51" s="10">
-        <f t="shared" si="1"/>
+      <c r="O51" s="9">
+        <f t="shared" si="9"/>
         <v>1.5534977634522242</v>
       </c>
-      <c r="P51" s="10">
-        <f t="shared" si="1"/>
+      <c r="P51" s="9">
+        <f t="shared" si="9"/>
         <v>0.22650223654777335</v>
       </c>
       <c r="Q51" s="4"/>
@@ -8082,11 +7958,11 @@
       <c r="V51" s="4"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="10">
-        <f t="shared" ref="C52:C54" si="2">(0.72*C34)+(0.72*D34)+(0.19*H34)</f>
+      <c r="C52" s="9">
+        <f t="shared" ref="C52:C54" si="10">(0.72*C34)+(0.72*D34)+(0.19*H34)</f>
         <v>1.5963616615808662</v>
       </c>
       <c r="D52" s="4"/>
@@ -8094,35 +7970,35 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="10">
-        <f>K34-J34</f>
+      <c r="J52" s="9">
+        <f t="shared" si="6"/>
         <v>3.8355799999999993</v>
       </c>
-      <c r="K52" s="10">
-        <f>L34-K34</f>
+      <c r="K52" s="9">
+        <f t="shared" si="6"/>
         <v>1.3234000000000012</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <f>(2*K52)+J34</f>
         <v>8.0431200000000018</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="9">
         <f>P60</f>
         <v>10.730491962051236</v>
       </c>
-      <c r="N52" s="10">
+      <c r="N52" s="9">
         <f>J34+(J52*2)</f>
         <v>13.06748</v>
       </c>
-      <c r="O52" s="10">
-        <f t="shared" si="1"/>
+      <c r="O52" s="9">
+        <f t="shared" si="9"/>
         <v>2.687371962051234</v>
       </c>
-      <c r="P52" s="10">
-        <f t="shared" si="1"/>
+      <c r="P52" s="9">
+        <f t="shared" si="9"/>
         <v>2.336988037948764</v>
       </c>
       <c r="Q52" s="4"/>
@@ -8133,11 +8009,11 @@
       <c r="V52" s="4"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="10">
-        <f t="shared" si="2"/>
+      <c r="C53" s="9">
+        <f t="shared" si="10"/>
         <v>1.681877677800707</v>
       </c>
       <c r="D53" s="4"/>
@@ -8145,35 +8021,35 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="10">
-        <f>K35-J35</f>
+      <c r="J53" s="9">
+        <f t="shared" si="6"/>
         <v>5.9692000000000007</v>
       </c>
-      <c r="K53" s="10">
-        <f>L35-K35</f>
+      <c r="K53" s="9">
+        <f t="shared" si="6"/>
         <v>2.727999999999998</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <f>(2*K53)+J35</f>
         <v>18.705999999999996</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="9">
         <f>Q60</f>
         <v>23.322029654868146</v>
       </c>
-      <c r="N53" s="10">
+      <c r="N53" s="9">
         <f>J35+(J53*2)</f>
         <v>25.188400000000001</v>
       </c>
-      <c r="O53" s="10">
-        <f t="shared" si="1"/>
+      <c r="O53" s="9">
+        <f t="shared" si="9"/>
         <v>4.6160296548681501</v>
       </c>
-      <c r="P53" s="10">
-        <f t="shared" si="1"/>
+      <c r="P53" s="9">
+        <f t="shared" si="9"/>
         <v>1.8663703451318554</v>
       </c>
       <c r="Q53" s="4"/>
@@ -8184,11 +8060,11 @@
       <c r="V53" s="4"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="10">
-        <f t="shared" si="2"/>
+      <c r="C54" s="9">
+        <f t="shared" si="10"/>
         <v>1.8088574121978178</v>
       </c>
       <c r="D54" s="4"/>
@@ -8196,35 +8072,35 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="10">
-        <f>K36-J36</f>
+      <c r="J54" s="9">
+        <f t="shared" si="6"/>
         <v>6.8821999999999992</v>
       </c>
-      <c r="K54" s="10">
-        <f>L36-K36</f>
+      <c r="K54" s="9">
+        <f t="shared" si="6"/>
         <v>1.041500000000001</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <f>(2*K54)+J36</f>
         <v>5.7460000000000022</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M54" s="9">
         <f>R60</f>
         <v>11.610070851348748</v>
       </c>
-      <c r="N54" s="10">
+      <c r="N54" s="9">
         <f>J36+(J54*2)</f>
         <v>17.427399999999999</v>
       </c>
-      <c r="O54" s="10">
-        <f t="shared" si="1"/>
+      <c r="O54" s="9">
+        <f t="shared" si="9"/>
         <v>5.8640708513487461</v>
       </c>
-      <c r="P54" s="10">
-        <f t="shared" si="1"/>
+      <c r="P54" s="9">
+        <f t="shared" si="9"/>
         <v>5.8173291486512504</v>
       </c>
       <c r="Q54" s="4"/>
@@ -8258,84 +8134,84 @@
       <c r="V55" s="4"/>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="40"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="33"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G57" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="H57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="35" t="s">
+      <c r="I57" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="35" t="s">
+      <c r="J57" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K57" s="36" t="s">
+      <c r="K57" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="35" t="s">
+      <c r="L57" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="35" t="s">
+      <c r="M57" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="35" t="s">
+      <c r="N57" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="O57" s="35" t="s">
+      <c r="O57" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="P57" s="35" t="s">
+      <c r="P57" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" s="35" t="s">
+      <c r="Q57" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R57" s="37" t="s">
+      <c r="R57" s="30" t="s">
         <v>36</v>
       </c>
       <c r="S57" s="4"/>
@@ -8344,71 +8220,71 @@
       <c r="V57" s="4"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="17">
         <v>2020</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="14">
         <f>A58+1</f>
         <v>2021</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="14">
         <v>0</v>
       </c>
-      <c r="D58" s="10">
-        <f t="shared" ref="D58:D73" si="3">(($E$23)*$C$41*(C58^$C$41))+(1*C58)+8.11</f>
+      <c r="D58" s="9">
+        <f t="shared" ref="D58:D73" si="11">(($E$23)*$C$41*(C58^$C$41))+(1*C58)+8.11</f>
         <v>8.11</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <f>($E$24*$C$42*C58^$C$42)+(1*C58)+4.57</f>
         <v>4.57</v>
       </c>
-      <c r="F58" s="10">
-        <f t="shared" ref="F58:F73" si="4">(($E$25*$C$43*C58^$C$43)+(0.5*C58)+4.55)</f>
+      <c r="F58" s="9">
+        <f t="shared" ref="F58:F73" si="12">(($E$25*$C$43*C58^$C$43)+(0.5*C58)+4.55)</f>
         <v>4.55</v>
       </c>
-      <c r="G58" s="10">
-        <f t="shared" ref="G58:G73" si="5">(($E$26*$C$44*C58^$C$44)+(0.5*C58)+6.25)</f>
+      <c r="G58" s="9">
+        <f t="shared" ref="G58:G73" si="13">(($E$26*$C$44*C58^$C$44)+(0.5*C58)+6.25)</f>
         <v>6.25</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <f>(($E$27*$C$45*(C58+1)^($C$45)-(2*C58)+2.49))</f>
         <v>3.9110719063270967</v>
       </c>
-      <c r="I58" s="10">
-        <f t="shared" ref="I58:I73" si="6">(($E$28*$C$46*(C58+1)^$C$46)-(1.5*C58)+10.53)</f>
+      <c r="I58" s="9">
+        <f t="shared" ref="I58:I73" si="14">(($E$28*$C$46*(C58+1)^$C$46)-(1.5*C58)+10.53)</f>
         <v>12.466171759806377</v>
       </c>
-      <c r="J58" s="10">
-        <f t="shared" ref="J58:J73" si="7">(($E$29*$C$47*(C58+1)^$C$47)-(2*C58)+8.95)</f>
+      <c r="J58" s="9">
+        <f t="shared" ref="J58:J73" si="15">(($E$29*$C$47*(C58+1)^$C$47)-(2*C58)+8.95)</f>
         <v>11.034300218538936</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10">
-        <f t="shared" ref="L58" si="8">(($E$30)*$C$48*(C58^$C$48))+(1*C58)+7.47</f>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9">
+        <f t="shared" ref="L58" si="16">(($E$30)*$C$48*(C58^$C$48))+(1*C58)+7.47</f>
         <v>7.47</v>
       </c>
-      <c r="M58" s="10">
-        <f t="shared" ref="M58" si="9">(($E$31)*$C$49*(C58^$C$49))+(0.5*C58)+4.15</f>
+      <c r="M58" s="9">
+        <f t="shared" ref="M58" si="17">(($E$31)*$C$49*(C58^$C$49))+(0.5*C58)+4.15</f>
         <v>4.1500000000000004</v>
       </c>
-      <c r="N58" s="10">
-        <f t="shared" ref="N58:N73" si="10">(($E$32*$C$50*(C58+1)^$C$50)-(2*C58)+6.87)</f>
+      <c r="N58" s="9">
+        <f t="shared" ref="N58:N73" si="18">(($E$32*$C$50*(C58+1)^$C$50)-(2*C58)+6.87)</f>
         <v>8.4600491809611569</v>
       </c>
-      <c r="O58" s="10">
-        <f t="shared" ref="O58:O73" si="11">(($E$33*$C$51*(C58+1)^$C$51)-(2*C58)+5.86)</f>
+      <c r="O58" s="9">
+        <f t="shared" ref="O58:O73" si="19">(($E$33*$C$51*(C58+1)^$C$51)-(2*C58)+5.86)</f>
         <v>7.4722296645777915</v>
       </c>
-      <c r="P58" s="10">
-        <f t="shared" ref="P58" si="12">(($E$34*$C$52*C58^$C$52)+(0.5*C58)+5.4)</f>
+      <c r="P58" s="9">
+        <f t="shared" ref="P58" si="20">(($E$34*$C$52*C58^$C$52)+(0.5*C58)+5.4)</f>
         <v>5.4</v>
       </c>
-      <c r="Q58" s="10">
-        <f t="shared" ref="Q58:Q73" si="13">(($E$35*$C$53*(C58+1)^($C$53)-(1.5*C58)+13.25))</f>
+      <c r="Q58" s="9">
+        <f t="shared" ref="Q58:Q73" si="21">(($E$35*$C$53*(C58+1)^($C$53)-(1.5*C58)+13.25))</f>
         <v>15.310076919826328</v>
       </c>
-      <c r="R58" s="10">
-        <f t="shared" ref="R58:R73" si="14">(($E$36*$C$54*(C58+1)^$C$54)-(2*C58)+3.66)</f>
+      <c r="R58" s="9">
+        <f t="shared" ref="R58:R73" si="22">(($E$36*$C$54*(C58+1)^$C$54)-(2*C58)+3.66)</f>
         <v>5.2980462584665506</v>
       </c>
       <c r="S58" s="4"/>
@@ -8419,71 +8295,71 @@
       <c r="X58" s="4"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="17">
         <v>2021</v>
       </c>
-      <c r="B59" s="17">
-        <f t="shared" ref="B59:B73" si="15">A59+1</f>
+      <c r="B59" s="14">
+        <f t="shared" ref="B59:B73" si="23">A59+1</f>
         <v>2022</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="14">
         <v>1</v>
       </c>
-      <c r="D59" s="10">
-        <f t="shared" si="3"/>
+      <c r="D59" s="9">
+        <f t="shared" si="11"/>
         <v>10.572133026993445</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <f>($E$24*$C$42*C59^$C$42)+(1*C59)+4.57</f>
         <v>6.7974692040096603</v>
       </c>
-      <c r="F59" s="10">
-        <f t="shared" si="4"/>
+      <c r="F59" s="9">
+        <f t="shared" si="12"/>
         <v>6.4005833224174182</v>
       </c>
-      <c r="G59" s="10">
-        <f t="shared" si="5"/>
+      <c r="G59" s="9">
+        <f t="shared" si="13"/>
         <v>8.5289738596839637</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <f>(($E$27*$C$45*(C59+1)^($C$45)-(2*C59)+2.49))</f>
         <v>4.7868169686859536</v>
       </c>
-      <c r="I59" s="10">
-        <f t="shared" si="6"/>
+      <c r="I59" s="9">
+        <f t="shared" si="14"/>
         <v>15.27907581888085</v>
       </c>
-      <c r="J59" s="10">
-        <f t="shared" si="7"/>
+      <c r="J59" s="9">
+        <f t="shared" si="15"/>
         <v>13.989790454139474</v>
       </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10">
-        <f t="shared" ref="L59:L73" si="16">(($E$30)*$C$48*(C59^$C$48))+(1*C59)+7.47</f>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9">
+        <f t="shared" ref="L59:L73" si="24">(($E$30)*$C$48*(C59^$C$48))+(1*C59)+7.47</f>
         <v>9.7551851060485504</v>
       </c>
-      <c r="M59" s="10">
-        <f t="shared" ref="M59:M73" si="17">(($E$31)*$C$49*(C59^$C$49))+(0.5*C59)+4.15</f>
+      <c r="M59" s="9">
+        <f t="shared" ref="M59:M73" si="25">(($E$31)*$C$49*(C59^$C$49))+(0.5*C59)+4.15</f>
         <v>6.1646596473417041</v>
       </c>
-      <c r="N59" s="10">
-        <f t="shared" si="10"/>
+      <c r="N59" s="9">
+        <f t="shared" si="18"/>
         <v>9.9904959413280157</v>
       </c>
-      <c r="O59" s="10">
-        <f t="shared" si="11"/>
+      <c r="O59" s="9">
+        <f t="shared" si="19"/>
         <v>9.2543501816654796</v>
       </c>
-      <c r="P59" s="10">
-        <f t="shared" ref="P59:P73" si="18">(($E$34*$C$52*C59^$C$52)+(0.5*C59)+5.4)</f>
+      <c r="P59" s="9">
+        <f t="shared" ref="P59:P73" si="26">(($E$34*$C$52*C59^$C$52)+(0.5*C59)+5.4)</f>
         <v>7.3321367614492523</v>
       </c>
-      <c r="Q59" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q59" s="9">
+        <f t="shared" si="21"/>
         <v>18.359659186455659</v>
       </c>
-      <c r="R59" s="10">
-        <f t="shared" si="14"/>
+      <c r="R59" s="9">
+        <f t="shared" si="22"/>
         <v>7.3991357979843597</v>
       </c>
       <c r="S59" s="4"/>
@@ -8494,71 +8370,71 @@
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="17">
         <v>2022</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="14">
+        <f t="shared" si="23"/>
+        <v>2023</v>
+      </c>
+      <c r="C60" s="14">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="11"/>
+        <v>14.196016681242689</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" ref="E60:E73" si="27">($E$24*$C$42*C60^$C$42)+(1*C60)+4.57</f>
+        <v>9.7880001280471234</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="12"/>
+        <v>9.5259363811388127</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" si="13"/>
+        <v>12.847346999885467</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" ref="H60:H73" si="28">(($E$27*$C$45*(C60+1)^($C$45)-(1.5*C60)+2.49))</f>
+        <v>7.6980379034000173</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="14"/>
+        <v>19.931858742330256</v>
+      </c>
+      <c r="J60" s="9">
         <f t="shared" si="15"/>
-        <v>2023</v>
-      </c>
-      <c r="C60" s="17">
-        <v>2</v>
-      </c>
-      <c r="D60" s="10">
-        <f t="shared" si="3"/>
-        <v>14.196016681242689</v>
-      </c>
-      <c r="E60" s="10">
-        <f t="shared" ref="E60:E73" si="19">($E$24*$C$42*C60^$C$42)+(1*C60)+4.57</f>
-        <v>9.7880001280471234</v>
-      </c>
-      <c r="F60" s="10">
-        <f t="shared" si="4"/>
-        <v>9.5259363811388127</v>
-      </c>
-      <c r="G60" s="10">
-        <f t="shared" si="5"/>
-        <v>12.847346999885467</v>
-      </c>
-      <c r="H60" s="10">
-        <f t="shared" ref="H60:H73" si="20">(($E$27*$C$45*(C60+1)^($C$45)-(1.5*C60)+2.49))</f>
-        <v>7.6980379034000173</v>
-      </c>
-      <c r="I60" s="10">
-        <f t="shared" si="6"/>
-        <v>19.931858742330256</v>
-      </c>
-      <c r="J60" s="10">
-        <f t="shared" si="7"/>
         <v>19.297313663916906</v>
       </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10">
-        <f t="shared" si="16"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9">
+        <f t="shared" si="24"/>
         <v>13.218319799533486</v>
       </c>
-      <c r="M60" s="10">
-        <f t="shared" si="17"/>
+      <c r="M60" s="9">
+        <f t="shared" si="25"/>
         <v>9.9637022773772124</v>
       </c>
-      <c r="N60" s="10">
-        <f t="shared" si="10"/>
+      <c r="N60" s="9">
+        <f t="shared" si="18"/>
         <v>13.018815084000579</v>
       </c>
-      <c r="O60" s="10">
-        <f t="shared" si="11"/>
+      <c r="O60" s="9">
+        <f t="shared" si="19"/>
         <v>12.793497763452226</v>
       </c>
-      <c r="P60" s="10">
-        <f t="shared" si="18"/>
+      <c r="P60" s="9">
+        <f t="shared" si="26"/>
         <v>10.730491962051236</v>
       </c>
-      <c r="Q60" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q60" s="9">
+        <f t="shared" si="21"/>
         <v>23.322029654868146</v>
       </c>
-      <c r="R60" s="10">
-        <f t="shared" si="14"/>
+      <c r="R60" s="9">
+        <f t="shared" si="22"/>
         <v>11.610070851348748</v>
       </c>
       <c r="S60" s="4"/>
@@ -8569,71 +8445,71 @@
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="17">
         <v>2023</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="14">
+        <f t="shared" si="23"/>
+        <v>2024</v>
+      </c>
+      <c r="C61" s="14">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="11"/>
+        <v>18.563781351620044</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="27"/>
+        <v>13.225057176049164</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="12"/>
+        <v>13.527198296269084</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" si="13"/>
+        <v>18.694198776910927</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="28"/>
+        <v>10.982049156827038</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="14"/>
+        <v>26.199155134266903</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" si="15"/>
-        <v>2024</v>
-      </c>
-      <c r="C61" s="17">
-        <v>3</v>
-      </c>
-      <c r="D61" s="10">
-        <f t="shared" si="3"/>
-        <v>18.563781351620044</v>
-      </c>
-      <c r="E61" s="10">
+        <v>26.727116749972399</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9">
+        <f t="shared" si="24"/>
+        <v>17.480818309677833</v>
+      </c>
+      <c r="M61" s="9">
+        <f t="shared" si="25"/>
+        <v>15.117306450734565</v>
+      </c>
+      <c r="N61" s="9">
+        <f t="shared" si="18"/>
+        <v>17.35972811602436</v>
+      </c>
+      <c r="O61" s="9">
         <f t="shared" si="19"/>
-        <v>13.225057176049164</v>
-      </c>
-      <c r="F61" s="10">
-        <f t="shared" si="4"/>
-        <v>13.527198296269084</v>
-      </c>
-      <c r="G61" s="10">
-        <f t="shared" si="5"/>
-        <v>18.694198776910927</v>
-      </c>
-      <c r="H61" s="10">
-        <f t="shared" si="20"/>
-        <v>10.982049156827038</v>
-      </c>
-      <c r="I61" s="10">
-        <f t="shared" si="6"/>
-        <v>26.199155134266903</v>
-      </c>
-      <c r="J61" s="10">
-        <f t="shared" si="7"/>
-        <v>26.727116749972399</v>
-      </c>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10">
-        <f t="shared" si="16"/>
-        <v>17.480818309677833</v>
-      </c>
-      <c r="M61" s="10">
-        <f t="shared" si="17"/>
-        <v>15.117306450734565</v>
-      </c>
-      <c r="N61" s="10">
-        <f t="shared" si="10"/>
-        <v>17.35972811602436</v>
-      </c>
-      <c r="O61" s="10">
-        <f t="shared" si="11"/>
         <v>17.908925982300921</v>
       </c>
-      <c r="P61" s="10">
-        <f t="shared" si="18"/>
+      <c r="P61" s="9">
+        <f t="shared" si="26"/>
         <v>15.172610401727509</v>
       </c>
-      <c r="Q61" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q61" s="9">
+        <f t="shared" si="21"/>
         <v>29.956778320093374</v>
       </c>
-      <c r="R61" s="10">
-        <f t="shared" si="14"/>
+      <c r="R61" s="9">
+        <f t="shared" si="22"/>
         <v>17.767905706240573</v>
       </c>
       <c r="S61" s="4"/>
@@ -8644,71 +8520,71 @@
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="17">
         <v>2024</v>
       </c>
-      <c r="B62" s="17">
-        <f t="shared" si="15"/>
+      <c r="B62" s="14">
+        <f t="shared" si="23"/>
         <v>2025</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="14">
         <v>4</v>
       </c>
-      <c r="D62" s="10">
-        <f t="shared" si="3"/>
+      <c r="D62" s="9">
+        <f t="shared" si="11"/>
         <v>23.528613772595108</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="9">
         <f>($E$24*$C$42*C62^$C$42)+(1*C62)+4.57</f>
         <v>17.00648442688734</v>
       </c>
-      <c r="F62" s="10">
-        <f t="shared" si="4"/>
+      <c r="F62" s="9">
+        <f t="shared" si="12"/>
         <v>18.254624101657228</v>
       </c>
-      <c r="G62" s="10">
-        <f t="shared" si="5"/>
+      <c r="G62" s="9">
+        <f t="shared" si="13"/>
         <v>25.861441149951851</v>
       </c>
-      <c r="H62" s="10">
-        <f t="shared" si="20"/>
+      <c r="H62" s="9">
+        <f t="shared" si="28"/>
         <v>15.04128597508573</v>
       </c>
-      <c r="I62" s="10">
-        <f t="shared" si="6"/>
+      <c r="I62" s="9">
+        <f t="shared" si="14"/>
         <v>33.940870017095349</v>
       </c>
-      <c r="J62" s="10">
-        <f t="shared" si="7"/>
+      <c r="J62" s="9">
+        <f t="shared" si="15"/>
         <v>36.132784382540365</v>
       </c>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10">
-        <f t="shared" si="16"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9">
+        <f t="shared" si="24"/>
         <v>22.402200547182488</v>
       </c>
-      <c r="M62" s="10">
-        <f t="shared" si="17"/>
+      <c r="M62" s="9">
+        <f t="shared" si="25"/>
         <v>21.448307877874747</v>
       </c>
-      <c r="N62" s="10">
-        <f t="shared" si="10"/>
+      <c r="N62" s="9">
+        <f t="shared" si="18"/>
         <v>22.898200503061233</v>
       </c>
-      <c r="O62" s="10">
-        <f t="shared" si="11"/>
+      <c r="O62" s="9">
+        <f t="shared" si="19"/>
         <v>24.48604037669784</v>
       </c>
-      <c r="P62" s="10">
-        <f t="shared" si="18"/>
+      <c r="P62" s="9">
+        <f t="shared" si="26"/>
         <v>20.494531987582725</v>
       </c>
-      <c r="Q62" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q62" s="9">
+        <f t="shared" si="21"/>
         <v>38.114943353798992</v>
       </c>
-      <c r="R62" s="10">
-        <f t="shared" si="14"/>
+      <c r="R62" s="9">
+        <f t="shared" si="22"/>
         <v>25.76670556629621</v>
       </c>
       <c r="S62" s="4"/>
@@ -8719,71 +8595,71 @@
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="17">
         <v>2025</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="14">
+        <f t="shared" si="23"/>
+        <v>2026</v>
+      </c>
+      <c r="C63" s="14">
+        <v>5</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" si="11"/>
+        <v>29.006230705814048</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="27"/>
+        <v>21.075691019428881</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="12"/>
+        <v>23.619727389232455</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="13"/>
+        <v>34.22151510743565</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" si="28"/>
+        <v>19.80819279229965</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="14"/>
+        <v>43.057520897021192</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" si="15"/>
-        <v>2026</v>
-      </c>
-      <c r="C63" s="17">
-        <v>5</v>
-      </c>
-      <c r="D63" s="10">
-        <f t="shared" si="3"/>
-        <v>29.006230705814048</v>
-      </c>
-      <c r="E63" s="10">
+        <v>47.408509419812887</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9">
+        <f t="shared" si="24"/>
+        <v>27.8998821972638</v>
+      </c>
+      <c r="M63" s="9">
+        <f t="shared" si="25"/>
+        <v>28.847504445741123</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="18"/>
+        <v>29.552615776387757</v>
+      </c>
+      <c r="O63" s="9">
         <f t="shared" si="19"/>
-        <v>21.075691019428881</v>
-      </c>
-      <c r="F63" s="10">
-        <f t="shared" si="4"/>
-        <v>23.619727389232455</v>
-      </c>
-      <c r="G63" s="10">
-        <f t="shared" si="5"/>
-        <v>34.22151510743565</v>
-      </c>
-      <c r="H63" s="10">
-        <f t="shared" si="20"/>
-        <v>19.80819279229965</v>
-      </c>
-      <c r="I63" s="10">
-        <f t="shared" si="6"/>
-        <v>43.057520897021192</v>
-      </c>
-      <c r="J63" s="10">
-        <f t="shared" si="7"/>
-        <v>47.408509419812887</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10">
-        <f t="shared" si="16"/>
-        <v>27.8998821972638</v>
-      </c>
-      <c r="M63" s="10">
-        <f t="shared" si="17"/>
-        <v>28.847504445741123</v>
-      </c>
-      <c r="N63" s="10">
-        <f t="shared" si="10"/>
-        <v>29.552615776387757</v>
-      </c>
-      <c r="O63" s="10">
-        <f t="shared" si="11"/>
         <v>32.442328772596433</v>
       </c>
-      <c r="P63" s="10">
-        <f t="shared" si="18"/>
+      <c r="P63" s="9">
+        <f t="shared" si="26"/>
         <v>26.597924864463323</v>
       </c>
-      <c r="Q63" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q63" s="9">
+        <f t="shared" si="21"/>
         <v>47.690987767196589</v>
       </c>
-      <c r="R63" s="10">
-        <f t="shared" si="14"/>
+      <c r="R63" s="9">
+        <f t="shared" si="22"/>
         <v>35.528829440524319</v>
       </c>
       <c r="S63" s="4"/>
@@ -8794,71 +8670,71 @@
       <c r="X63" s="4"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+      <c r="A64" s="17">
         <v>2026</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="14">
+        <f t="shared" si="23"/>
+        <v>2027</v>
+      </c>
+      <c r="C64" s="14">
+        <v>6</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="11"/>
+        <v>34.940030085348539</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" si="27"/>
+        <v>25.395605935525197</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="12"/>
+        <v>29.561870161341474</v>
+      </c>
+      <c r="G64" s="9">
+        <f t="shared" si="13"/>
+        <v>43.684726433234488</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" si="28"/>
+        <v>25.232166269280093</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="14"/>
+        <v>53.473110123265272</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" si="15"/>
-        <v>2027</v>
-      </c>
-      <c r="C64" s="17">
-        <v>6</v>
-      </c>
-      <c r="D64" s="10">
-        <f t="shared" si="3"/>
-        <v>34.940030085348539</v>
-      </c>
-      <c r="E64" s="10">
+        <v>60.472351194514971</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9">
+        <f t="shared" si="24"/>
+        <v>33.917474031110167</v>
+      </c>
+      <c r="M64" s="9">
+        <f t="shared" si="25"/>
+        <v>37.23781194013538</v>
+      </c>
+      <c r="N64" s="9">
+        <f t="shared" si="18"/>
+        <v>37.260666579465713</v>
+      </c>
+      <c r="O64" s="9">
         <f t="shared" si="19"/>
-        <v>25.395605935525197</v>
-      </c>
-      <c r="F64" s="10">
-        <f t="shared" si="4"/>
-        <v>29.561870161341474</v>
-      </c>
-      <c r="G64" s="10">
-        <f t="shared" si="5"/>
-        <v>43.684726433234488</v>
-      </c>
-      <c r="H64" s="10">
-        <f t="shared" si="20"/>
-        <v>25.232166269280093</v>
-      </c>
-      <c r="I64" s="10">
-        <f t="shared" si="6"/>
-        <v>53.473110123265272</v>
-      </c>
-      <c r="J64" s="10">
-        <f t="shared" si="7"/>
-        <v>60.472351194514971</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10">
-        <f t="shared" si="16"/>
-        <v>33.917474031110167</v>
-      </c>
-      <c r="M64" s="10">
-        <f t="shared" si="17"/>
-        <v>37.23781194013538</v>
-      </c>
-      <c r="N64" s="10">
-        <f t="shared" si="10"/>
-        <v>37.260666579465713</v>
-      </c>
-      <c r="O64" s="10">
-        <f t="shared" si="11"/>
         <v>41.71407136648714</v>
       </c>
-      <c r="P64" s="10">
-        <f t="shared" si="18"/>
+      <c r="P64" s="9">
+        <f t="shared" si="26"/>
         <v>33.414700979821092</v>
       </c>
-      <c r="Q64" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q64" s="9">
+        <f t="shared" si="21"/>
         <v>58.60443247544557</v>
       </c>
-      <c r="R64" s="10">
-        <f t="shared" si="14"/>
+      <c r="R64" s="9">
+        <f t="shared" si="22"/>
         <v>46.993483992671301</v>
       </c>
       <c r="S64" s="4"/>
@@ -8869,71 +8745,71 @@
       <c r="X64" s="4"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
+      <c r="A65" s="17">
         <v>2027</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="14">
+        <f t="shared" si="23"/>
+        <v>2028</v>
+      </c>
+      <c r="C65" s="14">
+        <v>7</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" si="11"/>
+        <v>41.288609876743621</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" si="27"/>
+        <v>29.939632193010841</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="12"/>
+        <v>36.035995609296798</v>
+      </c>
+      <c r="G65" s="9">
+        <f t="shared" si="13"/>
+        <v>54.183078194655259</v>
+      </c>
+      <c r="H65" s="9">
+        <f t="shared" si="28"/>
+        <v>31.273344513748349</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="14"/>
+        <v>65.126796809704558</v>
+      </c>
+      <c r="J65" s="9">
         <f t="shared" si="15"/>
-        <v>2028</v>
-      </c>
-      <c r="C65" s="17">
-        <v>7</v>
-      </c>
-      <c r="D65" s="10">
-        <f t="shared" si="3"/>
-        <v>41.288609876743621</v>
-      </c>
-      <c r="E65" s="10">
+        <v>75.257970048935931</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9">
+        <f t="shared" si="24"/>
+        <v>40.413193934079302</v>
+      </c>
+      <c r="M65" s="9">
+        <f t="shared" si="25"/>
+        <v>46.560616494626011</v>
+      </c>
+      <c r="N65" s="9">
+        <f t="shared" si="18"/>
+        <v>45.972499534426575</v>
+      </c>
+      <c r="O65" s="9">
         <f t="shared" si="19"/>
-        <v>29.939632193010841</v>
-      </c>
-      <c r="F65" s="10">
-        <f t="shared" si="4"/>
-        <v>36.035995609296798</v>
-      </c>
-      <c r="G65" s="10">
-        <f t="shared" si="5"/>
-        <v>54.183078194655259</v>
-      </c>
-      <c r="H65" s="10">
-        <f t="shared" si="20"/>
-        <v>31.273344513748349</v>
-      </c>
-      <c r="I65" s="10">
-        <f t="shared" si="6"/>
-        <v>65.126796809704558</v>
-      </c>
-      <c r="J65" s="10">
-        <f t="shared" si="7"/>
-        <v>75.257970048935931</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10">
-        <f t="shared" si="16"/>
-        <v>40.413193934079302</v>
-      </c>
-      <c r="M65" s="10">
-        <f t="shared" si="17"/>
-        <v>46.560616494626011</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="10"/>
-        <v>45.972499534426575</v>
-      </c>
-      <c r="O65" s="10">
-        <f t="shared" si="11"/>
         <v>52.249800095254351</v>
       </c>
-      <c r="P65" s="10">
-        <f t="shared" si="18"/>
+      <c r="P65" s="9">
+        <f t="shared" si="26"/>
         <v>40.89385735178022</v>
       </c>
-      <c r="Q65" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q65" s="9">
+        <f t="shared" si="21"/>
         <v>70.790943417952889</v>
       </c>
-      <c r="R65" s="10">
-        <f t="shared" si="14"/>
+      <c r="R65" s="9">
+        <f t="shared" si="22"/>
         <v>60.111002750808922</v>
       </c>
       <c r="S65" s="4"/>
@@ -8944,71 +8820,71 @@
       <c r="X65" s="4"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="17">
         <v>2028</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="14">
+        <f t="shared" si="23"/>
+        <v>2029</v>
+      </c>
+      <c r="C66" s="14">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="11"/>
+        <v>48.01998731998431</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" si="27"/>
+        <v>34.687547126483636</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="12"/>
+        <v>43.00684543922587</v>
+      </c>
+      <c r="G66" s="9">
+        <f t="shared" si="13"/>
+        <v>65.662476550866671</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" si="28"/>
+        <v>37.899202816330948</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="14"/>
+        <v>77.968252048513747</v>
+      </c>
+      <c r="J66" s="9">
         <f t="shared" si="15"/>
-        <v>2029</v>
-      </c>
-      <c r="C66" s="17">
-        <v>8</v>
-      </c>
-      <c r="D66" s="10">
-        <f t="shared" si="3"/>
-        <v>48.01998731998431</v>
-      </c>
-      <c r="E66" s="10">
+        <v>91.709961516058073</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9">
+        <f t="shared" si="24"/>
+        <v>47.354421606366571</v>
+      </c>
+      <c r="M66" s="9">
+        <f t="shared" si="25"/>
+        <v>56.769173027410886</v>
+      </c>
+      <c r="N66" s="9">
+        <f t="shared" si="18"/>
+        <v>55.646894225986763</v>
+      </c>
+      <c r="O66" s="9">
         <f t="shared" si="19"/>
-        <v>34.687547126483636</v>
-      </c>
-      <c r="F66" s="10">
-        <f t="shared" si="4"/>
-        <v>43.00684543922587</v>
-      </c>
-      <c r="G66" s="10">
-        <f t="shared" si="5"/>
-        <v>65.662476550866671</v>
-      </c>
-      <c r="H66" s="10">
-        <f t="shared" si="20"/>
-        <v>37.899202816330948</v>
-      </c>
-      <c r="I66" s="10">
-        <f t="shared" si="6"/>
-        <v>77.968252048513747</v>
-      </c>
-      <c r="J66" s="10">
-        <f t="shared" si="7"/>
-        <v>91.709961516058073</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10">
-        <f t="shared" si="16"/>
-        <v>47.354421606366571</v>
-      </c>
-      <c r="M66" s="10">
-        <f t="shared" si="17"/>
-        <v>56.769173027410886</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="10"/>
-        <v>55.646894225986763</v>
-      </c>
-      <c r="O66" s="10">
-        <f t="shared" si="11"/>
         <v>64.00661568996756</v>
       </c>
-      <c r="P66" s="10">
-        <f t="shared" si="18"/>
+      <c r="P66" s="9">
+        <f t="shared" si="26"/>
         <v>48.99521677361755</v>
       </c>
-      <c r="Q66" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q66" s="9">
+        <f t="shared" si="21"/>
         <v>84.19736844688201</v>
       </c>
-      <c r="R66" s="10">
-        <f t="shared" si="14"/>
+      <c r="R66" s="9">
+        <f t="shared" si="22"/>
         <v>74.839585200445129</v>
       </c>
       <c r="S66" s="4"/>
@@ -9019,71 +8895,71 @@
       <c r="X66" s="4"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
+      <c r="A67" s="17">
         <v>2029</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="14">
+        <f t="shared" si="23"/>
+        <v>2030</v>
+      </c>
+      <c r="C67" s="14">
+        <v>9</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" si="11"/>
+        <v>55.108496314663881</v>
+      </c>
+      <c r="E67" s="9">
+        <f t="shared" si="27"/>
+        <v>39.623339309792946</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" si="12"/>
+        <v>50.445812782330449</v>
+      </c>
+      <c r="G67" s="9">
+        <f t="shared" si="13"/>
+        <v>78.0784130716889</v>
+      </c>
+      <c r="H67" s="9">
+        <f t="shared" si="28"/>
+        <v>45.082503140616225</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="14"/>
+        <v>91.954820437654831</v>
+      </c>
+      <c r="J67" s="9">
         <f t="shared" si="15"/>
-        <v>2030</v>
-      </c>
-      <c r="C67" s="17">
-        <v>9</v>
-      </c>
-      <c r="D67" s="10">
-        <f t="shared" si="3"/>
-        <v>55.108496314663881</v>
-      </c>
-      <c r="E67" s="10">
+        <v>109.78097619203578</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9">
+        <f t="shared" si="24"/>
+        <v>54.714742442149927</v>
+      </c>
+      <c r="M67" s="9">
+        <f t="shared" si="25"/>
+        <v>67.824938468470364</v>
+      </c>
+      <c r="N67" s="9">
+        <f t="shared" si="18"/>
+        <v>66.248929297625665</v>
+      </c>
+      <c r="O67" s="9">
         <f t="shared" si="19"/>
-        <v>39.623339309792946</v>
-      </c>
-      <c r="F67" s="10">
-        <f t="shared" si="4"/>
-        <v>50.445812782330449</v>
-      </c>
-      <c r="G67" s="10">
-        <f t="shared" si="5"/>
-        <v>78.0784130716889</v>
-      </c>
-      <c r="H67" s="10">
-        <f t="shared" si="20"/>
-        <v>45.082503140616225</v>
-      </c>
-      <c r="I67" s="10">
-        <f t="shared" si="6"/>
-        <v>91.954820437654831</v>
-      </c>
-      <c r="J67" s="10">
-        <f t="shared" si="7"/>
-        <v>109.78097619203578</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10">
-        <f t="shared" si="16"/>
-        <v>54.714742442149927</v>
-      </c>
-      <c r="M67" s="10">
-        <f t="shared" si="17"/>
-        <v>67.824938468470364</v>
-      </c>
-      <c r="N67" s="10">
-        <f t="shared" si="10"/>
-        <v>66.248929297625665</v>
-      </c>
-      <c r="O67" s="10">
-        <f t="shared" si="11"/>
         <v>76.947918984970556</v>
       </c>
-      <c r="P67" s="10">
-        <f t="shared" si="18"/>
+      <c r="P67" s="9">
+        <f t="shared" si="26"/>
         <v>57.685996911018634</v>
       </c>
-      <c r="Q67" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q67" s="9">
+        <f t="shared" si="21"/>
         <v>98.778708304284947</v>
       </c>
-      <c r="R67" s="10">
-        <f t="shared" si="14"/>
+      <c r="R67" s="9">
+        <f t="shared" si="22"/>
         <v>91.143267509587204</v>
       </c>
       <c r="S67" s="4"/>
@@ -9094,71 +8970,71 @@
       <c r="X67" s="4"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="17">
         <v>2030</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="14">
+        <f t="shared" si="23"/>
+        <v>2031</v>
+      </c>
+      <c r="C68" s="14">
+        <v>10</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="11"/>
+        <v>62.532951013149976</v>
+      </c>
+      <c r="E68" s="9">
+        <f t="shared" si="27"/>
+        <v>44.733946315594402</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="12"/>
+        <v>58.32905780332176</v>
+      </c>
+      <c r="G68" s="9">
+        <f t="shared" si="13"/>
+        <v>91.393341001351502</v>
+      </c>
+      <c r="H68" s="9">
+        <f t="shared" si="28"/>
+        <v>52.799972258995673</v>
+      </c>
+      <c r="I68" s="9">
+        <f t="shared" si="14"/>
+        <v>107.0496673734755</v>
+      </c>
+      <c r="J68" s="9">
         <f t="shared" si="15"/>
-        <v>2031</v>
-      </c>
-      <c r="C68" s="17">
-        <v>10</v>
-      </c>
-      <c r="D68" s="10">
-        <f t="shared" si="3"/>
-        <v>62.532951013149976</v>
-      </c>
-      <c r="E68" s="10">
+        <v>129.42982352611159</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9">
+        <f t="shared" si="24"/>
+        <v>62.47218114283708</v>
+      </c>
+      <c r="M68" s="9">
+        <f t="shared" si="25"/>
+        <v>79.695338611275048</v>
+      </c>
+      <c r="N68" s="9">
+        <f t="shared" si="18"/>
+        <v>77.748459730329472</v>
+      </c>
+      <c r="O68" s="9">
         <f t="shared" si="19"/>
-        <v>44.733946315594402</v>
-      </c>
-      <c r="F68" s="10">
-        <f t="shared" si="4"/>
-        <v>58.32905780332176</v>
-      </c>
-      <c r="G68" s="10">
-        <f t="shared" si="5"/>
-        <v>91.393341001351502</v>
-      </c>
-      <c r="H68" s="10">
-        <f t="shared" si="20"/>
-        <v>52.799972258995673</v>
-      </c>
-      <c r="I68" s="10">
-        <f t="shared" si="6"/>
-        <v>107.0496673734755</v>
-      </c>
-      <c r="J68" s="10">
-        <f t="shared" si="7"/>
-        <v>129.42982352611159</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10">
-        <f t="shared" si="16"/>
-        <v>62.47218114283708</v>
-      </c>
-      <c r="M68" s="10">
-        <f t="shared" si="17"/>
-        <v>79.695338611275048</v>
-      </c>
-      <c r="N68" s="10">
-        <f t="shared" si="10"/>
-        <v>77.748459730329472</v>
-      </c>
-      <c r="O68" s="10">
-        <f t="shared" si="11"/>
         <v>91.041919934247176</v>
       </c>
-      <c r="P68" s="10">
-        <f t="shared" si="18"/>
+      <c r="P68" s="9">
+        <f t="shared" si="26"/>
         <v>66.938743723509717</v>
       </c>
-      <c r="Q68" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q68" s="9">
+        <f t="shared" si="21"/>
         <v>114.49614177091682</v>
       </c>
-      <c r="R68" s="10">
-        <f t="shared" si="14"/>
+      <c r="R68" s="9">
+        <f t="shared" si="22"/>
         <v>108.99057715928811</v>
       </c>
       <c r="S68" s="4"/>
@@ -9169,71 +9045,71 @@
       <c r="X68" s="4"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+      <c r="A69" s="17">
         <v>2031</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="14">
+        <f t="shared" si="23"/>
+        <v>2032</v>
+      </c>
+      <c r="C69" s="14">
+        <v>11</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" si="11"/>
+        <v>70.275479634346397</v>
+      </c>
+      <c r="E69" s="9">
+        <f t="shared" si="27"/>
+        <v>50.008462864813112</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="12"/>
+        <v>66.636299100640883</v>
+      </c>
+      <c r="G69" s="9">
+        <f t="shared" si="13"/>
+        <v>105.57497099363755</v>
+      </c>
+      <c r="H69" s="9">
+        <f t="shared" si="28"/>
+        <v>61.031404623705775</v>
+      </c>
+      <c r="I69" s="9">
+        <f t="shared" si="14"/>
+        <v>123.220507846441</v>
+      </c>
+      <c r="J69" s="9">
         <f t="shared" si="15"/>
-        <v>2032</v>
-      </c>
-      <c r="C69" s="17">
-        <v>11</v>
-      </c>
-      <c r="D69" s="10">
-        <f t="shared" si="3"/>
-        <v>70.275479634346397</v>
-      </c>
-      <c r="E69" s="10">
+        <v>150.62016085358337</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9">
+        <f t="shared" si="24"/>
+        <v>70.608070813877703</v>
+      </c>
+      <c r="M69" s="9">
+        <f t="shared" si="25"/>
+        <v>92.352314787070867</v>
+      </c>
+      <c r="N69" s="9">
+        <f t="shared" si="18"/>
+        <v>90.119072443039585</v>
+      </c>
+      <c r="O69" s="9">
         <f t="shared" si="19"/>
-        <v>50.008462864813112</v>
-      </c>
-      <c r="F69" s="10">
-        <f t="shared" si="4"/>
-        <v>66.636299100640883</v>
-      </c>
-      <c r="G69" s="10">
-        <f t="shared" si="5"/>
-        <v>105.57497099363755</v>
-      </c>
-      <c r="H69" s="10">
-        <f t="shared" si="20"/>
-        <v>61.031404623705775</v>
-      </c>
-      <c r="I69" s="10">
-        <f t="shared" si="6"/>
-        <v>123.220507846441</v>
-      </c>
-      <c r="J69" s="10">
-        <f t="shared" si="7"/>
-        <v>150.62016085358337</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10">
-        <f t="shared" si="16"/>
-        <v>70.608070813877703</v>
-      </c>
-      <c r="M69" s="10">
-        <f t="shared" si="17"/>
-        <v>92.352314787070867</v>
-      </c>
-      <c r="N69" s="10">
-        <f t="shared" si="10"/>
-        <v>90.119072443039585</v>
-      </c>
-      <c r="O69" s="10">
-        <f t="shared" si="11"/>
         <v>106.26060842192761</v>
       </c>
-      <c r="P69" s="10">
-        <f t="shared" si="18"/>
+      <c r="P69" s="9">
+        <f t="shared" si="26"/>
         <v>76.729999228809803</v>
       </c>
-      <c r="Q69" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q69" s="9">
+        <f t="shared" si="21"/>
         <v>131.31567199823093</v>
       </c>
-      <c r="R69" s="10">
-        <f t="shared" si="14"/>
+      <c r="R69" s="9">
+        <f t="shared" si="22"/>
         <v>128.35359709460326</v>
       </c>
       <c r="S69" s="4"/>
@@ -9244,71 +9120,71 @@
       <c r="X69" s="4"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="17">
         <v>2032</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="14">
+        <f t="shared" si="23"/>
+        <v>2033</v>
+      </c>
+      <c r="C70" s="14">
+        <v>12</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="11"/>
+        <v>78.320743364805224</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" si="27"/>
+        <v>55.43761610234322</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="12"/>
+        <v>75.349997111420535</v>
+      </c>
+      <c r="G70" s="9">
+        <f t="shared" si="13"/>
+        <v>120.5951067275282</v>
+      </c>
+      <c r="H70" s="9">
+        <f t="shared" si="28"/>
+        <v>69.759028375281801</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" si="14"/>
+        <v>140.43869930021495</v>
+      </c>
+      <c r="J70" s="9">
         <f t="shared" si="15"/>
-        <v>2033</v>
-      </c>
-      <c r="C70" s="17">
-        <v>12</v>
-      </c>
-      <c r="D70" s="10">
-        <f t="shared" si="3"/>
-        <v>78.320743364805224</v>
-      </c>
-      <c r="E70" s="10">
+        <v>173.31955151903298</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9">
+        <f t="shared" si="24"/>
+        <v>79.106290057007271</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" si="25"/>
+        <v>105.7713292614726</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" si="18"/>
+        <v>103.33734124975349</v>
+      </c>
+      <c r="O70" s="9">
         <f t="shared" si="19"/>
-        <v>55.43761610234322</v>
-      </c>
-      <c r="F70" s="10">
-        <f t="shared" si="4"/>
-        <v>75.349997111420535</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" si="5"/>
-        <v>120.5951067275282</v>
-      </c>
-      <c r="H70" s="10">
-        <f t="shared" si="20"/>
-        <v>69.759028375281801</v>
-      </c>
-      <c r="I70" s="10">
-        <f t="shared" si="6"/>
-        <v>140.43869930021495</v>
-      </c>
-      <c r="J70" s="10">
-        <f t="shared" si="7"/>
-        <v>173.31955151903298</v>
-      </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10">
-        <f t="shared" si="16"/>
-        <v>79.106290057007271</v>
-      </c>
-      <c r="M70" s="10">
-        <f t="shared" si="17"/>
-        <v>105.7713292614726</v>
-      </c>
-      <c r="N70" s="10">
-        <f t="shared" si="10"/>
-        <v>103.33734124975349</v>
-      </c>
-      <c r="O70" s="10">
-        <f t="shared" si="11"/>
         <v>122.57901586842722</v>
       </c>
-      <c r="P70" s="10">
-        <f t="shared" si="18"/>
+      <c r="P70" s="9">
+        <f t="shared" si="26"/>
         <v>87.039397327256594</v>
       </c>
-      <c r="Q70" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q70" s="9">
+        <f t="shared" si="21"/>
         <v>149.20716137545551</v>
       </c>
-      <c r="R70" s="10">
-        <f t="shared" si="14"/>
+      <c r="R70" s="9">
+        <f t="shared" si="22"/>
         <v>149.20728966977293</v>
       </c>
       <c r="S70" s="4"/>
@@ -9319,71 +9195,71 @@
       <c r="X70" s="4"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="17">
         <v>2033</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="14">
+        <f t="shared" si="23"/>
+        <v>2034</v>
+      </c>
+      <c r="C71" s="14">
+        <v>13</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="11"/>
+        <v>86.655390824679472</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="27"/>
+        <v>61.013402603669647</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="12"/>
+        <v>84.454779332691245</v>
+      </c>
+      <c r="G71" s="9">
+        <f t="shared" si="13"/>
+        <v>136.42881714566025</v>
+      </c>
+      <c r="H71" s="9">
+        <f t="shared" si="28"/>
+        <v>78.967042429336274</v>
+      </c>
+      <c r="I71" s="9">
+        <f t="shared" si="14"/>
+        <v>158.67857342058468</v>
+      </c>
+      <c r="J71" s="9">
         <f t="shared" si="15"/>
-        <v>2034</v>
-      </c>
-      <c r="C71" s="17">
-        <v>13</v>
-      </c>
-      <c r="D71" s="10">
-        <f t="shared" si="3"/>
-        <v>86.655390824679472</v>
-      </c>
-      <c r="E71" s="10">
+        <v>197.4987668168605</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9">
+        <f t="shared" si="24"/>
+        <v>87.952726727563686</v>
+      </c>
+      <c r="M71" s="9">
+        <f t="shared" si="25"/>
+        <v>119.93065711207259</v>
+      </c>
+      <c r="N71" s="9">
+        <f t="shared" si="18"/>
+        <v>117.38227821716416</v>
+      </c>
+      <c r="O71" s="9">
         <f t="shared" si="19"/>
-        <v>61.013402603669647</v>
-      </c>
-      <c r="F71" s="10">
-        <f t="shared" si="4"/>
-        <v>84.454779332691245</v>
-      </c>
-      <c r="G71" s="10">
-        <f t="shared" si="5"/>
-        <v>136.42881714566025</v>
-      </c>
-      <c r="H71" s="10">
-        <f t="shared" si="20"/>
-        <v>78.967042429336274</v>
-      </c>
-      <c r="I71" s="10">
-        <f t="shared" si="6"/>
-        <v>158.67857342058468</v>
-      </c>
-      <c r="J71" s="10">
-        <f t="shared" si="7"/>
-        <v>197.4987668168605</v>
-      </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10">
-        <f t="shared" si="16"/>
-        <v>87.952726727563686</v>
-      </c>
-      <c r="M71" s="10">
-        <f t="shared" si="17"/>
-        <v>119.93065711207259</v>
-      </c>
-      <c r="N71" s="10">
-        <f t="shared" si="10"/>
-        <v>117.38227821716416</v>
-      </c>
-      <c r="O71" s="10">
-        <f t="shared" si="11"/>
         <v>139.9746686733645</v>
       </c>
-      <c r="P71" s="10">
-        <f t="shared" si="18"/>
+      <c r="P71" s="9">
+        <f t="shared" si="26"/>
         <v>97.84902482566909</v>
       </c>
-      <c r="Q71" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q71" s="9">
+        <f t="shared" si="21"/>
         <v>168.14362116934927</v>
       </c>
-      <c r="R71" s="10">
-        <f t="shared" si="14"/>
+      <c r="R71" s="9">
+        <f t="shared" si="22"/>
         <v>171.52899311794934</v>
       </c>
       <c r="S71" s="4"/>
@@ -9394,71 +9270,71 @@
       <c r="X71" s="4"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="17">
         <v>2034</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="14">
+        <f t="shared" si="23"/>
+        <v>2035</v>
+      </c>
+      <c r="C72" s="14">
+        <v>14</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="11"/>
+        <v>95.267663956248626</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="27"/>
+        <v>66.728828389491895</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="12"/>
+        <v>93.937022154420134</v>
+      </c>
+      <c r="G72" s="9">
+        <f t="shared" si="13"/>
+        <v>153.05382880539506</v>
+      </c>
+      <c r="H72" s="9">
+        <f t="shared" si="28"/>
+        <v>88.64126923722884</v>
+      </c>
+      <c r="I72" s="9">
+        <f t="shared" si="14"/>
+        <v>177.91693085655214</v>
+      </c>
+      <c r="J72" s="9">
         <f t="shared" si="15"/>
-        <v>2035</v>
-      </c>
-      <c r="C72" s="17">
-        <v>14</v>
-      </c>
-      <c r="D72" s="10">
-        <f t="shared" si="3"/>
-        <v>95.267663956248626</v>
-      </c>
-      <c r="E72" s="10">
+        <v>223.13125518410479</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9">
+        <f t="shared" si="24"/>
+        <v>97.1348882939769</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="25"/>
+        <v>134.8108657021132</v>
+      </c>
+      <c r="N72" s="9">
+        <f t="shared" si="18"/>
+        <v>132.234918913672</v>
+      </c>
+      <c r="O72" s="9">
         <f t="shared" si="19"/>
-        <v>66.728828389491895</v>
-      </c>
-      <c r="F72" s="10">
-        <f t="shared" si="4"/>
-        <v>93.937022154420134</v>
-      </c>
-      <c r="G72" s="10">
-        <f t="shared" si="5"/>
-        <v>153.05382880539506</v>
-      </c>
-      <c r="H72" s="10">
-        <f t="shared" si="20"/>
-        <v>88.64126923722884</v>
-      </c>
-      <c r="I72" s="10">
-        <f t="shared" si="6"/>
-        <v>177.91693085655214</v>
-      </c>
-      <c r="J72" s="10">
-        <f t="shared" si="7"/>
-        <v>223.13125518410479</v>
-      </c>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10">
-        <f t="shared" si="16"/>
-        <v>97.1348882939769</v>
-      </c>
-      <c r="M72" s="10">
-        <f t="shared" si="17"/>
-        <v>134.8108657021132</v>
-      </c>
-      <c r="N72" s="10">
-        <f t="shared" si="10"/>
-        <v>132.234918913672</v>
-      </c>
-      <c r="O72" s="10">
-        <f t="shared" si="11"/>
         <v>158.42717309221055</v>
       </c>
-      <c r="P72" s="10">
-        <f t="shared" si="18"/>
+      <c r="P72" s="9">
+        <f t="shared" si="26"/>
         <v>109.14295488141309</v>
       </c>
-      <c r="Q72" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q72" s="9">
+        <f t="shared" si="21"/>
         <v>188.10067476543523</v>
       </c>
-      <c r="R72" s="10">
-        <f t="shared" si="14"/>
+      <c r="R72" s="9">
+        <f t="shared" si="22"/>
         <v>195.29803693476831</v>
       </c>
       <c r="S72" s="4"/>
@@ -9469,71 +9345,71 @@
       <c r="X72" s="4"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="17">
         <v>2035</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="14">
+        <f t="shared" si="23"/>
+        <v>2036</v>
+      </c>
+      <c r="C73" s="14">
+        <v>15</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" si="11"/>
+        <v>104.14710524868535</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="27"/>
+        <v>72.57771730344254</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="12"/>
+        <v>103.78453821616228</v>
+      </c>
+      <c r="G73" s="9">
+        <f t="shared" si="13"/>
+        <v>170.45006783258094</v>
+      </c>
+      <c r="H73" s="9">
+        <f t="shared" si="28"/>
+        <v>98.768888346103139</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" si="14"/>
+        <v>198.13265064025398</v>
+      </c>
+      <c r="J73" s="9">
         <f t="shared" si="15"/>
-        <v>2036</v>
-      </c>
-      <c r="C73" s="17">
-        <v>15</v>
-      </c>
-      <c r="D73" s="10">
-        <f t="shared" si="3"/>
-        <v>104.14710524868535</v>
-      </c>
-      <c r="E73" s="10">
+        <v>250.19272977245134</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9">
+        <f t="shared" si="24"/>
+        <v>106.64161085639167</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="25"/>
+        <v>150.3944218232115</v>
+      </c>
+      <c r="N73" s="9">
+        <f t="shared" si="18"/>
+        <v>147.87800188836854</v>
+      </c>
+      <c r="O73" s="9">
         <f t="shared" si="19"/>
-        <v>72.57771730344254</v>
-      </c>
-      <c r="F73" s="10">
-        <f t="shared" si="4"/>
-        <v>103.78453821616228</v>
-      </c>
-      <c r="G73" s="10">
-        <f t="shared" si="5"/>
-        <v>170.45006783258094</v>
-      </c>
-      <c r="H73" s="10">
-        <f t="shared" si="20"/>
-        <v>98.768888346103139</v>
-      </c>
-      <c r="I73" s="10">
-        <f t="shared" si="6"/>
-        <v>198.13265064025398</v>
-      </c>
-      <c r="J73" s="10">
-        <f t="shared" si="7"/>
-        <v>250.19272977245134</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10">
-        <f t="shared" si="16"/>
-        <v>106.64161085639167</v>
-      </c>
-      <c r="M73" s="10">
-        <f t="shared" si="17"/>
-        <v>150.3944218232115</v>
-      </c>
-      <c r="N73" s="10">
-        <f t="shared" si="10"/>
-        <v>147.87800188836854</v>
-      </c>
-      <c r="O73" s="10">
-        <f t="shared" si="11"/>
         <v>177.91789303590815</v>
       </c>
-      <c r="P73" s="10">
-        <f t="shared" si="18"/>
+      <c r="P73" s="9">
+        <f t="shared" si="26"/>
         <v>120.90689702843019</v>
       </c>
-      <c r="Q73" s="10">
-        <f t="shared" si="13"/>
+      <c r="Q73" s="9">
+        <f t="shared" si="21"/>
         <v>209.05614303251173</v>
       </c>
-      <c r="R73" s="10">
-        <f t="shared" si="14"/>
+      <c r="R73" s="9">
+        <f t="shared" si="22"/>
         <v>220.49544179611377</v>
       </c>
       <c r="S73" s="4"/>
@@ -9612,13 +9488,13 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F77" s="4"/>
@@ -9641,14 +9517,14 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <f>((D60-L23)/L23)*100</f>
         <v>1.4001191517334937</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="9">
         <f>D60-L23</f>
         <v>0.19601668124268912</v>
       </c>
@@ -9672,14 +9548,14 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <f>((E60-L24)/L24)*100</f>
         <v>-2.9930611690076958</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="9">
         <f>E60-L24</f>
         <v>-0.30199987195287648</v>
       </c>
@@ -9703,14 +9579,14 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <f>((F60-L25)/L25)*100</f>
         <v>-0.77149602980403076</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="9">
         <f>F60-L25</f>
         <v>-7.4063618861186953E-2</v>
       </c>
@@ -9734,14 +9610,14 @@
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <f>((G60-L26)/L26)*100</f>
         <v>2.044058775897275</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="9">
         <f>G60-L26</f>
         <v>0.25734699988546694</v>
       </c>
@@ -9765,14 +9641,14 @@
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="15">
         <f>((H60-L27)/L27)*100</f>
         <v>7.9426482612599782</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="15">
         <f>H60-L27</f>
         <v>0.56643790340001665</v>
       </c>
@@ -9796,14 +9672,14 @@
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <f>((I60-L28)/L28)*100</f>
         <v>-6.6860545771055406</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="9">
         <f>I60-L28</f>
         <v>-1.4281412576697434</v>
       </c>
@@ -9827,14 +9703,14 @@
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <f>((J60-L29)/L29)*100</f>
         <v>-2.3541805114473746</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="9">
         <f>J60-L29</f>
         <v>-0.46524633608309429</v>
       </c>
@@ -9858,11 +9734,11 @@
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -9883,14 +9759,14 @@
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <f>((L60-L30)/L30)*100</f>
         <v>-3.3748552665680847</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
         <f>L60-L30</f>
         <v>-0.46168020046651392</v>
       </c>
@@ -9914,14 +9790,14 @@
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="15">
         <f>((M60-L31)/L31)*100</f>
         <v>0.84718904227946945</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="15">
         <f>M60-L31</f>
         <v>8.3702277377211587E-2</v>
       </c>
@@ -9945,14 +9821,14 @@
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="15">
         <f>((N60-L32)/L32)*100</f>
         <v>-7.4036516723229102</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="15">
         <f>N60-L32</f>
         <v>-1.0409349159994203</v>
       </c>
@@ -9976,14 +9852,14 @@
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="15">
         <f>((O60-L33)/L33)*100</f>
         <v>5.4698908775946036</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="15">
         <f>O60-L33</f>
         <v>0.66349776345222544</v>
       </c>
@@ -10007,14 +9883,14 @@
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <f>((P60-L34)/L34)*100</f>
         <v>1.6597535082018986</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="9">
         <f>P60-L34</f>
         <v>0.175191962051235</v>
       </c>
@@ -10038,14 +9914,14 @@
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <f>((Q60-L35)/L35)*100</f>
         <v>6.2642599277727795</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="9">
         <f>Q60-L35</f>
         <v>1.3748296548681473</v>
       </c>
@@ -10069,14 +9945,14 @@
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <f>((R60-L36)/L36)*100</f>
         <v>0.20170412066203347</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
         <f>R60-L36</f>
         <v>2.3370851348747834E-2</v>
       </c>
@@ -10318,8 +10194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21348F32-ACD8-4480-81D5-DEA394901505}">
   <dimension ref="B1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10350,13 +10226,13 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10375,15 +10251,15 @@
         <f>30+45+7+2</f>
         <v>84</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f>D5/C5*100</f>
         <v>2.740612861458783</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f>E5/C5*100</f>
         <v>1.8126888217522661</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <f>G5+F5</f>
         <v>4.5533016832110489</v>
       </c>
@@ -10403,15 +10279,15 @@
         <f>32+82+6+6+1+3+2</f>
         <v>132</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" ref="F6:F7" si="0">D6/C6*100</f>
         <v>4.9219427580225492</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G7" si="1">E6/C6*100</f>
         <v>2.8620988725065044</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H7" si="2">G6+F6</f>
         <v>7.7840416305290532</v>
       </c>
@@ -10431,23 +10307,31 @@
         <f>21+82+2+5+6+1</f>
         <v>117</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>6.8949560388708937</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>2.7070800555298473</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>9.6020360944007415</v>
       </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -10462,13 +10346,13 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10487,15 +10371,15 @@
         <f>8+62+4+11+2+2+1+1</f>
         <v>91</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <f>D11/C11*100</f>
         <v>4.4614779874213832</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <f>E11/C11*100</f>
         <v>1.7885220125786163</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f>G11+F11</f>
         <v>6.25</v>
       </c>
@@ -10515,15 +10399,15 @@
         <f>37+112+4+28+2+8+1</f>
         <v>192</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f t="shared" ref="F12:F13" si="3">D12/C12*100</f>
         <v>6.6852367688022287</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f t="shared" ref="G12:G13" si="4">E12/C12*100</f>
         <v>3.8201352964584165</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <f t="shared" ref="H12:H13" si="5">G12+F12</f>
         <v>10.505372065260644</v>
       </c>
@@ -10542,23 +10426,31 @@
         <f>37+102+1+18+4+2+46</f>
         <v>210</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <f t="shared" si="3"/>
         <v>8.3867093674939959</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <f t="shared" si="4"/>
         <v>4.2033626901521215</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <f t="shared" si="5"/>
         <v>12.590072057646118</v>
       </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -10573,13 +10465,13 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10598,15 +10490,15 @@
         <f>2+19+1+3+1+1+1</f>
         <v>28</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <f>D17/C17*100</f>
         <v>1.7316017316017316</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <f>E17/C17*100</f>
         <v>0.75757575757575757</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <f>G17+F17</f>
         <v>2.4891774891774894</v>
       </c>
@@ -10626,15 +10518,15 @@
         <f>17+36+4+2+1</f>
         <v>60</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <f t="shared" ref="F18:F19" si="6">D18/C18*100</f>
         <v>4.2997234096052299</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <f t="shared" ref="G18:G19" si="7">E18/C18*100</f>
         <v>1.5086748805632386</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <f t="shared" ref="H18:H19" si="8">G18+F18</f>
         <v>5.8083982901684683</v>
       </c>
@@ -10654,23 +10546,31 @@
         <f>14+49+3+5</f>
         <v>71</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <f t="shared" si="6"/>
         <v>5.3615960099750621</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <f t="shared" si="7"/>
         <v>1.7705735660847881</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <f t="shared" si="8"/>
         <v>7.1321695760598498</v>
       </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>8</v>
       </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -10685,13 +10585,13 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10710,15 +10610,15 @@
         <f>85+360+2+84+1+30+7+4+1</f>
         <v>574</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <f>D23/C23*100</f>
         <v>6.6729449751109922</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <f>E23/C23*100</f>
         <v>3.8611596932597871</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <f>G23+F23</f>
         <v>10.53410466837078</v>
       </c>
@@ -10738,15 +10638,15 @@
         <f>112+605+8+115+9+18+1+4+4+1</f>
         <v>877</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <f t="shared" ref="F24:F25" si="9">D24/C24*100</f>
         <v>11.050183938363295</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <f t="shared" ref="G24:G25" si="10">E24/C24*100</f>
         <v>6.0873186645380715</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f t="shared" ref="H24:H25" si="11">G24+F24</f>
         <v>17.137502602901368</v>
       </c>
@@ -10766,23 +10666,31 @@
         <f>95+622+4+58+24+4+1</f>
         <v>808</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <f t="shared" si="9"/>
         <v>15.512124502352515</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <f t="shared" si="10"/>
         <v>5.8487151646760767</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f t="shared" si="11"/>
         <v>21.360839667028593</v>
       </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -10797,13 +10705,13 @@
       <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10822,15 +10730,15 @@
         <f>6+49+10+10+2+1</f>
         <v>78</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <f>D29/C29*100</f>
         <v>5.9939301972685888</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <f>E29/C29*100</f>
         <v>2.959028831562974</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <f>G29+F29</f>
         <v>8.9529590288315628</v>
       </c>
@@ -10850,15 +10758,15 @@
         <f>25+105+1+2+6+2</f>
         <v>141</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <f t="shared" ref="F30:F31" si="12">D30/C30*100</f>
         <v>11.212814645308924</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <f t="shared" ref="G30:G31" si="13">E30/C30*100</f>
         <v>5.3775743707093824</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <f t="shared" ref="H30:H31" si="14">G30+F30</f>
         <v>16.590389016018307</v>
       </c>
@@ -10878,26 +10786,37 @@
         <f>20+83+10+10+8</f>
         <v>131</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <f t="shared" si="12"/>
         <v>14.206955046649702</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <f t="shared" si="13"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <f t="shared" si="14"/>
         <v>19.762510602205257</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>19</v>
       </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -10912,13 +10831,13 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10937,15 +10856,15 @@
         <f>20+39+2+5+1+1+1</f>
         <v>69</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <f>D36/C36*100</f>
         <v>5.5082339579784216</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <f>E36/C36*100</f>
         <v>1.9591141396933562</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <f>G36+F36</f>
         <v>7.4673480976717777</v>
       </c>
@@ -10965,15 +10884,15 @@
         <f>1+53+53+5+5+4+1+1</f>
         <v>123</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <f t="shared" ref="F37:F38" si="15">D37/C37*100</f>
         <v>7.893192488262911</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <f t="shared" ref="G37:G38" si="16">E37/C37*100</f>
         <v>3.609154929577465</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <f t="shared" ref="H37:H38" si="17">G37+F37</f>
         <v>11.502347417840376</v>
       </c>
@@ -10992,23 +10911,31 @@
         <f>1+41+44+4+6+1</f>
         <v>97</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <f t="shared" si="15"/>
         <v>10.685608400247066</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <f t="shared" si="16"/>
         <v>2.9956763434218656</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <f t="shared" si="17"/>
         <v>13.681284743668932</v>
       </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>20</v>
       </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -11023,13 +10950,13 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11048,15 +10975,15 @@
         <f>9+22+2+4+2+1</f>
         <v>40</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <f>D42/C42*100</f>
         <v>2.5041050903119868</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <f>E42/C42*100</f>
         <v>1.6420361247947455</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <f>G42+F42</f>
         <v>4.1461412151067325</v>
       </c>
@@ -11076,15 +11003,15 @@
         <f>23+46+1+2+1+1</f>
         <v>74</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <f t="shared" ref="F43:F44" si="18">D43/C43*100</f>
         <v>5.8449809402795427</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <f t="shared" ref="G43:G44" si="19">E43/C43*100</f>
         <v>3.1342651418890304</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <f t="shared" ref="H43:H44" si="20">G43+F43</f>
         <v>8.9792460821685722</v>
       </c>
@@ -11103,23 +11030,31 @@
       <c r="E44">
         <v>63</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <f t="shared" si="18"/>
         <v>7.4655436447166919</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <f t="shared" si="19"/>
         <v>2.4119448698315464</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <f t="shared" si="20"/>
         <v>9.8774885145482383</v>
       </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>21</v>
       </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -11134,13 +11069,13 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11159,15 +11094,15 @@
         <f>1+20+1+1+1</f>
         <v>24</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <f>D48/C48*100</f>
         <v>2.2975077881619939</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <f>E48/C48*100</f>
         <v>0.93457943925233633</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <f>G48+F48</f>
         <v>3.23208722741433</v>
       </c>
@@ -11187,15 +11122,15 @@
         <f>6+38+5</f>
         <v>49</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <f t="shared" ref="F49:F50" si="21">D49/C49*100</f>
         <v>3.0315278900565885</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <f t="shared" ref="G49:G50" si="22">E49/C49*100</f>
         <v>1.9805982215036377</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <f t="shared" ref="H49:H50" si="23">G49+F49</f>
         <v>5.0121261115602262</v>
       </c>
@@ -11213,23 +11148,36 @@
       <c r="E50">
         <v>52</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <f t="shared" si="21"/>
         <v>5.4298642533936654</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <f t="shared" si="22"/>
         <v>2.3529411764705883</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <f t="shared" si="23"/>
         <v>7.7828054298642542</v>
       </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>29</v>
       </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -11244,13 +11192,13 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11269,15 +11217,15 @@
         <f>10+40+3+8+1+1+1</f>
         <v>64</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <f>D55/C55*100</f>
         <v>3.8570084666039515</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <f>E55/C55*100</f>
         <v>2.0068987143305113</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <f>G55+F55</f>
         <v>5.8639071809344632</v>
       </c>
@@ -11297,15 +11245,15 @@
         <f>20+74+9</f>
         <v>103</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <f t="shared" ref="F56:F57" si="24">D56/C56*100</f>
         <v>5.2665177146504947</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <f t="shared" ref="G56:G57" si="25">E56/C56*100</f>
         <v>3.287583785509097</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <f t="shared" ref="H56:H57" si="26">G56+F56</f>
         <v>8.5541015001595913</v>
       </c>
@@ -11325,23 +11273,31 @@
         <f>39+80+1+2+2+1</f>
         <v>125</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <f t="shared" si="24"/>
         <v>7.8119599032146558</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <f t="shared" si="25"/>
         <v>4.3207742827514686</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <f t="shared" si="26"/>
         <v>12.132734185966125</v>
       </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>31</v>
       </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -11356,13 +11312,13 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11381,15 +11337,15 @@
         <f>7+64+1+4+5+1+1+1</f>
         <v>84</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <f>D61/C61*100</f>
         <v>3.7359161889701524</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <f>E61/C61*100</f>
         <v>1.6604071950978454</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <f>(D61+E61)/C61*100</f>
         <v>5.3963233840679976</v>
       </c>
@@ -11409,15 +11365,15 @@
         <f>52+106+3+11+3+2+1+1</f>
         <v>179</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <f t="shared" ref="F62:F63" si="27">D62/C62*100</f>
         <v>5.9268833087149186</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <f t="shared" ref="G62:G63" si="28">E62/C62*100</f>
         <v>3.3050221565731168</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <f t="shared" ref="H62:H63" si="29">(D62+E62)/C62*100</f>
         <v>9.231905465288035</v>
       </c>
@@ -11437,23 +11393,31 @@
         <f>32+104+1+10+2+4</f>
         <v>153</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <f t="shared" si="27"/>
         <v>7.4316047366271949</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <f t="shared" si="28"/>
         <v>3.1237239689669254</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <f t="shared" si="29"/>
         <v>10.555328705594121</v>
       </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>32</v>
       </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -11468,13 +11432,13 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11493,15 +11457,15 @@
         <f>8+107+22+10+3+2</f>
         <v>152</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <f>D67/C67*100</f>
         <v>8.865145827317356</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <f>E67/C67*100</f>
         <v>4.3892578688997981</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <f>(D67+E67)/C67*100</f>
         <v>13.254403696217153</v>
       </c>
@@ -11521,15 +11485,15 @@
         <f>12+161+45+1+11+1+1</f>
         <v>232</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <f t="shared" ref="F68:F69" si="30">D68/C68*100</f>
         <v>12.252252252252251</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <f t="shared" ref="G68:G69" si="31">E68/C68*100</f>
         <v>6.9669669669669672</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <f t="shared" ref="H68:H69" si="32">(D68+E68)/C68*100</f>
         <v>19.219219219219219</v>
       </c>
@@ -11549,23 +11513,31 @@
         <f>12+134+1+14+1+5</f>
         <v>167</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <f t="shared" si="30"/>
         <v>16.435643564356436</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <f t="shared" si="31"/>
         <v>5.5115511551155114</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <f t="shared" si="32"/>
         <v>21.947194719471945</v>
       </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>43</v>
       </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -11580,13 +11552,13 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11605,15 +11577,15 @@
         <f>7+16+1</f>
         <v>24</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="4">
         <f>D73/C73*100</f>
         <v>2.197802197802198</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <f>E73/C73*100</f>
         <v>1.4652014652014651</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="4">
         <f>(D73+E73)/C73*100</f>
         <v>3.6630036630036633</v>
       </c>
@@ -11633,15 +11605,15 @@
         <f>20+43+6</f>
         <v>69</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <f t="shared" ref="F74:F75" si="33">D74/C74*100</f>
         <v>6.411024565608149</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <f t="shared" ref="G74:G75" si="34">E74/C74*100</f>
         <v>4.134212103055722</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="4">
         <f t="shared" ref="H74:H75" si="35">(D74+E74)/C74*100</f>
         <v>10.545236668663872</v>
       </c>
@@ -11661,23 +11633,31 @@
         <f>10+27+2+1</f>
         <v>40</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <f t="shared" si="33"/>
         <v>8.634686346863468</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <f t="shared" si="34"/>
         <v>2.9520295202952029</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="4">
         <f t="shared" si="35"/>
         <v>11.586715867158672</v>
       </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>45</v>
       </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
@@ -11692,13 +11672,13 @@
       <c r="E78" t="s">
         <v>17</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11715,15 +11695,15 @@
       <c r="E79">
         <v>56</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="4">
         <f>D79/C79*100</f>
         <v>4.604200323101777</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <f>E79/C79*100</f>
         <v>2.2617124394184165</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="4">
         <f>(D79+E79)/C79*100</f>
         <v>6.8659127625201934</v>
       </c>
@@ -11741,15 +11721,15 @@
       <c r="E80">
         <v>91</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <f t="shared" ref="F80:F81" si="36">D80/C80*100</f>
         <v>7.808052053680357</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <f t="shared" ref="G80:G81" si="37">E80/C80*100</f>
         <v>3.7006913379422532</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="4">
         <f t="shared" ref="H80:H81" si="38">(D80+E80)/C80*100</f>
         <v>11.508743391622611</v>
       </c>
@@ -11767,15 +11747,15 @@
       <c r="E81">
         <v>90</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <f t="shared" si="36"/>
         <v>10.105448154657294</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <f t="shared" si="37"/>
         <v>3.9543057996485063</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="4">
         <f t="shared" si="38"/>
         <v>14.059753954305801</v>
       </c>
